--- a/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
+++ b/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5867" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="3215">
   <si>
     <t xml:space="preserve">na</t>
   </si>
@@ -9674,7 +9674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9718,6 +9718,14 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -9790,7 +9798,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9815,11 +9823,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9842,8 +9854,8 @@
   </sheetPr>
   <dimension ref="A1:D2866"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D224" activeCellId="0" sqref="D224:D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11815,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>11</v>
       </c>
@@ -11825,8 +11837,11 @@
       <c r="C143" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>11</v>
       </c>
@@ -11836,8 +11851,11 @@
       <c r="C144" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>11</v>
       </c>
@@ -11847,8 +11865,11 @@
       <c r="C145" s="0" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>11</v>
       </c>
@@ -11858,8 +11879,11 @@
       <c r="C146" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>11</v>
       </c>
@@ -11869,8 +11893,11 @@
       <c r="C147" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>11</v>
       </c>
@@ -11880,8 +11907,11 @@
       <c r="C148" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>11</v>
       </c>
@@ -11891,8 +11921,11 @@
       <c r="C149" s="0" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>11</v>
       </c>
@@ -11902,8 +11935,11 @@
       <c r="C150" s="0" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>11</v>
       </c>
@@ -11913,8 +11949,11 @@
       <c r="C151" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>11</v>
       </c>
@@ -11924,8 +11963,11 @@
       <c r="C152" s="0" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>10</v>
       </c>
@@ -11935,8 +11977,11 @@
       <c r="C153" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>10</v>
       </c>
@@ -11946,8 +11991,11 @@
       <c r="C154" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>10</v>
       </c>
@@ -11957,8 +12005,11 @@
       <c r="C155" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>10</v>
       </c>
@@ -11968,8 +12019,11 @@
       <c r="C156" s="0" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>10</v>
       </c>
@@ -11979,8 +12033,11 @@
       <c r="C157" s="0" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>10</v>
       </c>
@@ -11990,8 +12047,11 @@
       <c r="C158" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>10</v>
       </c>
@@ -12001,8 +12061,11 @@
       <c r="C159" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D159" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>10</v>
       </c>
@@ -12012,8 +12075,11 @@
       <c r="C160" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>10</v>
       </c>
@@ -12023,8 +12089,11 @@
       <c r="C161" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D161" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>10</v>
       </c>
@@ -12034,8 +12103,11 @@
       <c r="C162" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D162" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>10</v>
       </c>
@@ -12044,6 +12116,9 @@
       </c>
       <c r="C163" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,7 +12132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>10</v>
       </c>
@@ -12067,8 +12142,11 @@
       <c r="C165" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D165" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>10</v>
       </c>
@@ -12078,8 +12156,11 @@
       <c r="C166" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D166" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>10</v>
       </c>
@@ -12089,8 +12170,11 @@
       <c r="C167" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D167" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>10</v>
       </c>
@@ -12100,8 +12184,11 @@
       <c r="C168" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>10</v>
       </c>
@@ -12111,8 +12198,11 @@
       <c r="C169" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>10</v>
       </c>
@@ -12122,19 +12212,25 @@
       <c r="C170" s="0" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D171" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>9</v>
       </c>
@@ -12143,6 +12239,9 @@
       </c>
       <c r="C172" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12156,7 +12255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>9</v>
       </c>
@@ -12166,8 +12265,11 @@
       <c r="C174" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>9</v>
       </c>
@@ -12177,8 +12279,11 @@
       <c r="C175" s="0" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>9</v>
       </c>
@@ -12188,8 +12293,11 @@
       <c r="C176" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>9</v>
       </c>
@@ -12199,8 +12307,11 @@
       <c r="C177" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D177" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>9</v>
       </c>
@@ -12209,6 +12320,9 @@
       </c>
       <c r="C178" s="0" t="s">
         <v>205</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12222,7 +12336,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>9</v>
       </c>
@@ -12232,8 +12346,11 @@
       <c r="C180" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D180" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>9</v>
       </c>
@@ -12243,8 +12360,11 @@
       <c r="C181" s="0" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D181" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>9</v>
       </c>
@@ -12254,8 +12374,11 @@
       <c r="C182" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>9</v>
       </c>
@@ -12265,8 +12388,11 @@
       <c r="C183" s="0" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>9</v>
       </c>
@@ -12276,8 +12402,11 @@
       <c r="C184" s="0" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D184" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>9</v>
       </c>
@@ -12287,8 +12416,11 @@
       <c r="C185" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D185" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>9</v>
       </c>
@@ -12298,8 +12430,11 @@
       <c r="C186" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>9</v>
       </c>
@@ -12309,8 +12444,11 @@
       <c r="C187" s="0" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>9</v>
       </c>
@@ -12320,8 +12458,11 @@
       <c r="C188" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>9</v>
       </c>
@@ -12331,8 +12472,11 @@
       <c r="C189" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>9</v>
       </c>
@@ -12342,8 +12486,11 @@
       <c r="C190" s="0" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>9</v>
       </c>
@@ -12352,6 +12499,9 @@
       </c>
       <c r="C191" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,7 +12515,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>9</v>
       </c>
@@ -12375,8 +12525,11 @@
       <c r="C193" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D193" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>9</v>
       </c>
@@ -12386,8 +12539,11 @@
       <c r="C194" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>9</v>
       </c>
@@ -12397,8 +12553,11 @@
       <c r="C195" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D195" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>9</v>
       </c>
@@ -12408,8 +12567,11 @@
       <c r="C196" s="0" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>8</v>
       </c>
@@ -12419,8 +12581,11 @@
       <c r="C197" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>8</v>
       </c>
@@ -12430,8 +12595,11 @@
       <c r="C198" s="0" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>8</v>
       </c>
@@ -12441,8 +12609,11 @@
       <c r="C199" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>8</v>
       </c>
@@ -12452,8 +12623,11 @@
       <c r="C200" s="0" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>8</v>
       </c>
@@ -12463,8 +12637,11 @@
       <c r="C201" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D201" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>8</v>
       </c>
@@ -12474,8 +12651,11 @@
       <c r="C202" s="0" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>8</v>
       </c>
@@ -12485,8 +12665,11 @@
       <c r="C203" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>8</v>
       </c>
@@ -12496,8 +12679,11 @@
       <c r="C204" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>8</v>
       </c>
@@ -12507,8 +12693,11 @@
       <c r="C205" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D205" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>8</v>
       </c>
@@ -12518,8 +12707,11 @@
       <c r="C206" s="0" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D206" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>8</v>
       </c>
@@ -12529,8 +12721,11 @@
       <c r="C207" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D207" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>8</v>
       </c>
@@ -12540,8 +12735,11 @@
       <c r="C208" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D208" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>8</v>
       </c>
@@ -12551,8 +12749,11 @@
       <c r="C209" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D209" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>8</v>
       </c>
@@ -12562,8 +12763,11 @@
       <c r="C210" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D210" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>8</v>
       </c>
@@ -12573,8 +12777,11 @@
       <c r="C211" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>8</v>
       </c>
@@ -12584,8 +12791,11 @@
       <c r="C212" s="0" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>8</v>
       </c>
@@ -12595,8 +12805,11 @@
       <c r="C213" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D213" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>8</v>
       </c>
@@ -12606,8 +12819,11 @@
       <c r="C214" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D214" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>8</v>
       </c>
@@ -12617,8 +12833,11 @@
       <c r="C215" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D215" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>8</v>
       </c>
@@ -12628,8 +12847,11 @@
       <c r="C216" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D216" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>8</v>
       </c>
@@ -12639,8 +12861,11 @@
       <c r="C217" s="0" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D217" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>8</v>
       </c>
@@ -12650,8 +12875,11 @@
       <c r="C218" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D218" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>8</v>
       </c>
@@ -12661,8 +12889,11 @@
       <c r="C219" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D219" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>8</v>
       </c>
@@ -12672,8 +12903,11 @@
       <c r="C220" s="0" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D220" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>8</v>
       </c>
@@ -12683,8 +12917,11 @@
       <c r="C221" s="0" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D221" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>8</v>
       </c>
@@ -12694,8 +12931,11 @@
       <c r="C222" s="0" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D222" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>7</v>
       </c>
@@ -12705,8 +12945,11 @@
       <c r="C223" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D223" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>7</v>
       </c>
@@ -12716,8 +12959,11 @@
       <c r="C224" s="0" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D224" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>7</v>
       </c>
@@ -12727,8 +12973,11 @@
       <c r="C225" s="0" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D225" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>7</v>
       </c>
@@ -12738,8 +12987,11 @@
       <c r="C226" s="0" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D226" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>7</v>
       </c>
@@ -12749,8 +13001,11 @@
       <c r="C227" s="0" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D227" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>7</v>
       </c>
@@ -12759,6 +13014,9 @@
       </c>
       <c r="C228" s="0" t="s">
         <v>267</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15521,7 +15779,7 @@
       <c r="C479" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D479" s="4"/>
+      <c r="D479" s="5"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="n">
@@ -23285,7 +23543,7 @@
       <c r="B1185" s="0" t="s">
         <v>1471</v>
       </c>
-      <c r="C1185" s="5" t="s">
+      <c r="C1185" s="6" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -23560,7 +23818,7 @@
       <c r="B1210" s="0" t="s">
         <v>1514</v>
       </c>
-      <c r="C1210" s="6" t="s">
+      <c r="C1210" s="7" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -24121,7 +24379,7 @@
       <c r="B1261" s="0" t="s">
         <v>1599</v>
       </c>
-      <c r="C1261" s="7" t="s">
+      <c r="C1261" s="8" t="s">
         <v>1600</v>
       </c>
     </row>

--- a/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
+++ b/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="3215">
   <si>
     <t xml:space="preserve">na</t>
   </si>
@@ -9854,8 +9854,8 @@
   </sheetPr>
   <dimension ref="A1:D2866"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D224" activeCellId="0" sqref="D224:D228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D440" activeCellId="0" sqref="D440:D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13030,7 +13030,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>7</v>
       </c>
@@ -13040,8 +13040,11 @@
       <c r="C230" s="0" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>7</v>
       </c>
@@ -13051,8 +13054,11 @@
       <c r="C231" s="0" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D231" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>7</v>
       </c>
@@ -13062,8 +13068,11 @@
       <c r="C232" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D232" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>7</v>
       </c>
@@ -13073,8 +13082,11 @@
       <c r="C233" s="0" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D233" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>7</v>
       </c>
@@ -13084,8 +13096,11 @@
       <c r="C234" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D234" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>7</v>
       </c>
@@ -13095,8 +13110,11 @@
       <c r="C235" s="0" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D235" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <v>7</v>
       </c>
@@ -13106,8 +13124,11 @@
       <c r="C236" s="0" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D236" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>7</v>
       </c>
@@ -13117,8 +13138,11 @@
       <c r="C237" s="0" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D237" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>7</v>
       </c>
@@ -13128,8 +13152,11 @@
       <c r="C238" s="0" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D238" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>7</v>
       </c>
@@ -13139,8 +13166,11 @@
       <c r="C239" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D239" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>7</v>
       </c>
@@ -13149,6 +13179,9 @@
       </c>
       <c r="C240" s="0" t="s">
         <v>281</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13162,7 +13195,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>7</v>
       </c>
@@ -13172,8 +13205,11 @@
       <c r="C242" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D242" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>7</v>
       </c>
@@ -13183,8 +13219,11 @@
       <c r="C243" s="0" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>7</v>
       </c>
@@ -13194,8 +13233,11 @@
       <c r="C244" s="0" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D244" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>7</v>
       </c>
@@ -13205,8 +13247,11 @@
       <c r="C245" s="0" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D245" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
         <v>7</v>
       </c>
@@ -13216,8 +13261,11 @@
       <c r="C246" s="0" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D246" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>7</v>
       </c>
@@ -13227,8 +13275,11 @@
       <c r="C247" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D247" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
         <v>7</v>
       </c>
@@ -13238,8 +13289,11 @@
       <c r="C248" s="0" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D248" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>7</v>
       </c>
@@ -13249,8 +13303,11 @@
       <c r="C249" s="0" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D249" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>7</v>
       </c>
@@ -13260,8 +13317,11 @@
       <c r="C250" s="0" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D250" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>7</v>
       </c>
@@ -13271,8 +13331,11 @@
       <c r="C251" s="0" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D251" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>7</v>
       </c>
@@ -13282,8 +13345,11 @@
       <c r="C252" s="0" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D252" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
         <v>7</v>
       </c>
@@ -13293,8 +13359,11 @@
       <c r="C253" s="0" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D253" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>7</v>
       </c>
@@ -13304,8 +13373,11 @@
       <c r="C254" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D254" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>7</v>
       </c>
@@ -13315,8 +13387,11 @@
       <c r="C255" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D255" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>7</v>
       </c>
@@ -13326,8 +13401,11 @@
       <c r="C256" s="0" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D256" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
         <v>7</v>
       </c>
@@ -13337,8 +13415,11 @@
       <c r="C257" s="0" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D257" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
         <v>7</v>
       </c>
@@ -13348,8 +13429,11 @@
       <c r="C258" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D258" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
         <v>7</v>
       </c>
@@ -13359,8 +13443,11 @@
       <c r="C259" s="0" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D259" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
         <v>7</v>
       </c>
@@ -13370,8 +13457,11 @@
       <c r="C260" s="0" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D260" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>7</v>
       </c>
@@ -13381,8 +13471,11 @@
       <c r="C261" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D261" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
         <v>7</v>
       </c>
@@ -13392,8 +13485,11 @@
       <c r="C262" s="0" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D262" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
         <v>7</v>
       </c>
@@ -13403,8 +13499,11 @@
       <c r="C263" s="0" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D263" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
         <v>7</v>
       </c>
@@ -13414,8 +13513,11 @@
       <c r="C264" s="0" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D264" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
         <v>7</v>
       </c>
@@ -13425,8 +13527,11 @@
       <c r="C265" s="0" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D265" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
         <v>7</v>
       </c>
@@ -13436,8 +13541,11 @@
       <c r="C266" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
         <v>6</v>
       </c>
@@ -13447,8 +13555,11 @@
       <c r="C267" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
         <v>6</v>
       </c>
@@ -13458,8 +13569,11 @@
       <c r="C268" s="0" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D268" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>6</v>
       </c>
@@ -13469,8 +13583,11 @@
       <c r="C269" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D269" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>6</v>
       </c>
@@ -13480,8 +13597,11 @@
       <c r="C270" s="0" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D270" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <v>6</v>
       </c>
@@ -13491,8 +13611,11 @@
       <c r="C271" s="0" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D271" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
         <v>6</v>
       </c>
@@ -13502,8 +13625,11 @@
       <c r="C272" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D272" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <v>6</v>
       </c>
@@ -13512,6 +13638,9 @@
       </c>
       <c r="C273" s="0" t="s">
         <v>321</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13525,7 +13654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
         <v>6</v>
       </c>
@@ -13535,8 +13664,11 @@
       <c r="C275" s="0" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D275" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
         <v>6</v>
       </c>
@@ -13546,8 +13678,11 @@
       <c r="C276" s="0" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D276" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
         <v>6</v>
       </c>
@@ -13557,8 +13692,11 @@
       <c r="C277" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D277" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>6</v>
       </c>
@@ -13568,8 +13706,11 @@
       <c r="C278" s="0" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D278" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
         <v>6</v>
       </c>
@@ -13579,8 +13720,11 @@
       <c r="C279" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D279" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
         <v>6</v>
       </c>
@@ -13590,8 +13734,11 @@
       <c r="C280" s="0" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D280" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
         <v>6</v>
       </c>
@@ -13601,8 +13748,11 @@
       <c r="C281" s="0" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D281" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
         <v>6</v>
       </c>
@@ -13612,8 +13762,11 @@
       <c r="C282" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D282" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
         <v>6</v>
       </c>
@@ -13623,8 +13776,11 @@
       <c r="C283" s="0" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D283" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
         <v>6</v>
       </c>
@@ -13634,8 +13790,11 @@
       <c r="C284" s="0" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D284" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
         <v>6</v>
       </c>
@@ -13645,8 +13804,11 @@
       <c r="C285" s="0" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D285" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
         <v>6</v>
       </c>
@@ -13656,8 +13818,11 @@
       <c r="C286" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D286" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
         <v>6</v>
       </c>
@@ -13666,6 +13831,9 @@
       </c>
       <c r="C287" s="0" t="s">
         <v>338</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13679,7 +13847,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
         <v>6</v>
       </c>
@@ -13689,8 +13857,11 @@
       <c r="C289" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D289" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
         <v>6</v>
       </c>
@@ -13700,8 +13871,11 @@
       <c r="C290" s="0" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D290" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
         <v>6</v>
       </c>
@@ -13711,8 +13885,11 @@
       <c r="C291" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D291" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
         <v>6</v>
       </c>
@@ -13722,8 +13899,11 @@
       <c r="C292" s="0" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D292" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
         <v>6</v>
       </c>
@@ -13733,8 +13913,11 @@
       <c r="C293" s="0" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D293" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
         <v>6</v>
       </c>
@@ -13744,8 +13927,11 @@
       <c r="C294" s="0" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D294" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <v>6</v>
       </c>
@@ -13755,8 +13941,11 @@
       <c r="C295" s="0" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D295" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>6</v>
       </c>
@@ -13766,8 +13955,11 @@
       <c r="C296" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D296" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>6</v>
       </c>
@@ -13777,8 +13969,11 @@
       <c r="C297" s="0" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D297" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
         <v>6</v>
       </c>
@@ -13788,8 +13983,11 @@
       <c r="C298" s="0" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D298" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
         <v>6</v>
       </c>
@@ -13799,8 +13997,11 @@
       <c r="C299" s="0" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D299" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
         <v>6</v>
       </c>
@@ -13810,8 +14011,11 @@
       <c r="C300" s="0" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D300" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
         <v>6</v>
       </c>
@@ -13821,8 +14025,11 @@
       <c r="C301" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D301" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
         <v>6</v>
       </c>
@@ -13832,8 +14039,11 @@
       <c r="C302" s="0" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D302" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
         <v>6</v>
       </c>
@@ -13843,8 +14053,11 @@
       <c r="C303" s="0" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D303" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
         <v>6</v>
       </c>
@@ -13854,19 +14067,25 @@
       <c r="C304" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D304" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="C305" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D305" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
         <v>6</v>
       </c>
@@ -13876,8 +14095,11 @@
       <c r="C306" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D306" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
         <v>6</v>
       </c>
@@ -13887,8 +14109,11 @@
       <c r="C307" s="0" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D307" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
         <v>6</v>
       </c>
@@ -13898,8 +14123,11 @@
       <c r="C308" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D308" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
         <v>6</v>
       </c>
@@ -13908,6 +14136,9 @@
       </c>
       <c r="C309" s="0" t="s">
         <v>365</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13921,7 +14152,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
         <v>6</v>
       </c>
@@ -13931,8 +14162,11 @@
       <c r="C311" s="0" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D311" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
         <v>6</v>
       </c>
@@ -13942,8 +14176,11 @@
       <c r="C312" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D312" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
         <v>6</v>
       </c>
@@ -13953,8 +14190,11 @@
       <c r="C313" s="0" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D313" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
         <v>6</v>
       </c>
@@ -13964,8 +14204,11 @@
       <c r="C314" s="0" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D314" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
         <v>6</v>
       </c>
@@ -13975,8 +14218,11 @@
       <c r="C315" s="0" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D315" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
         <v>6</v>
       </c>
@@ -13986,8 +14232,11 @@
       <c r="C316" s="0" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D316" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
         <v>6</v>
       </c>
@@ -13997,8 +14246,11 @@
       <c r="C317" s="0" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D317" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
         <v>6</v>
       </c>
@@ -14008,8 +14260,11 @@
       <c r="C318" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D318" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
         <v>6</v>
       </c>
@@ -14019,8 +14274,11 @@
       <c r="C319" s="0" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D319" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
         <v>6</v>
       </c>
@@ -14030,8 +14288,11 @@
       <c r="C320" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D320" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
         <v>6</v>
       </c>
@@ -14041,8 +14302,11 @@
       <c r="C321" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D321" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
         <v>6</v>
       </c>
@@ -14052,8 +14316,11 @@
       <c r="C322" s="0" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D322" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
         <v>6</v>
       </c>
@@ -14063,8 +14330,11 @@
       <c r="C323" s="0" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D323" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
         <v>6</v>
       </c>
@@ -14074,8 +14344,11 @@
       <c r="C324" s="0" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D324" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
         <v>5</v>
       </c>
@@ -14084,6 +14357,9 @@
       </c>
       <c r="C325" s="1" t="s">
         <v>385</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14097,7 +14373,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
         <v>5</v>
       </c>
@@ -14107,8 +14383,11 @@
       <c r="C327" s="0" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D327" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
         <v>5</v>
       </c>
@@ -14118,8 +14397,11 @@
       <c r="C328" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D328" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
         <v>5</v>
       </c>
@@ -14129,8 +14411,11 @@
       <c r="C329" s="0" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D329" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
         <v>5</v>
       </c>
@@ -14140,8 +14425,11 @@
       <c r="C330" s="0" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D330" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
         <v>5</v>
       </c>
@@ -14151,8 +14439,11 @@
       <c r="C331" s="0" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D331" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
         <v>5</v>
       </c>
@@ -14162,8 +14453,11 @@
       <c r="C332" s="0" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D332" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
         <v>5</v>
       </c>
@@ -14173,8 +14467,11 @@
       <c r="C333" s="0" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D333" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
         <v>5</v>
       </c>
@@ -14183,6 +14480,9 @@
       </c>
       <c r="C334" s="0" t="s">
         <v>396</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14196,7 +14496,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
         <v>5</v>
       </c>
@@ -14206,8 +14506,11 @@
       <c r="C336" s="0" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D336" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
         <v>5</v>
       </c>
@@ -14217,8 +14520,11 @@
       <c r="C337" s="0" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D337" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
         <v>5</v>
       </c>
@@ -14228,8 +14534,11 @@
       <c r="C338" s="0" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D338" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
         <v>5</v>
       </c>
@@ -14239,8 +14548,11 @@
       <c r="C339" s="0" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D339" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
         <v>5</v>
       </c>
@@ -14250,8 +14562,11 @@
       <c r="C340" s="0" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D340" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
         <v>5</v>
       </c>
@@ -14261,8 +14576,11 @@
       <c r="C341" s="0" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D341" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
         <v>5</v>
       </c>
@@ -14272,8 +14590,11 @@
       <c r="C342" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D342" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
         <v>5</v>
       </c>
@@ -14283,8 +14604,11 @@
       <c r="C343" s="0" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D343" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
         <v>5</v>
       </c>
@@ -14294,8 +14618,11 @@
       <c r="C344" s="0" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D344" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>5</v>
       </c>
@@ -14305,8 +14632,11 @@
       <c r="C345" s="0" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D345" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
         <v>5</v>
       </c>
@@ -14316,8 +14646,11 @@
       <c r="C346" s="0" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D346" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
         <v>5</v>
       </c>
@@ -14327,8 +14660,11 @@
       <c r="C347" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D347" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
         <v>5</v>
       </c>
@@ -14338,8 +14674,11 @@
       <c r="C348" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D348" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
         <v>5</v>
       </c>
@@ -14349,8 +14688,11 @@
       <c r="C349" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D349" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
         <v>5</v>
       </c>
@@ -14360,8 +14702,11 @@
       <c r="C350" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D350" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
         <v>5</v>
       </c>
@@ -14371,8 +14716,11 @@
       <c r="C351" s="0" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D351" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
         <v>5</v>
       </c>
@@ -14382,8 +14730,11 @@
       <c r="C352" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D352" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
         <v>5</v>
       </c>
@@ -14393,8 +14744,11 @@
       <c r="C353" s="0" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D353" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
         <v>5</v>
       </c>
@@ -14404,8 +14758,11 @@
       <c r="C354" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D354" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
         <v>5</v>
       </c>
@@ -14415,8 +14772,11 @@
       <c r="C355" s="0" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D355" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
         <v>5</v>
       </c>
@@ -14426,8 +14786,11 @@
       <c r="C356" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D356" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
         <v>5</v>
       </c>
@@ -14437,8 +14800,11 @@
       <c r="C357" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D357" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
         <v>5</v>
       </c>
@@ -14448,8 +14814,11 @@
       <c r="C358" s="0" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D358" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
         <v>5</v>
       </c>
@@ -14458,6 +14827,9 @@
       </c>
       <c r="C359" s="0" t="s">
         <v>427</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14471,7 +14843,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
         <v>5</v>
       </c>
@@ -14481,8 +14853,11 @@
       <c r="C361" s="0" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D361" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
         <v>5</v>
       </c>
@@ -14492,8 +14867,11 @@
       <c r="C362" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D362" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
         <v>5</v>
       </c>
@@ -14503,8 +14881,11 @@
       <c r="C363" s="0" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D363" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
         <v>5</v>
       </c>
@@ -14514,8 +14895,11 @@
       <c r="C364" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D364" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
         <v>5</v>
       </c>
@@ -14525,8 +14909,11 @@
       <c r="C365" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D365" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
         <v>5</v>
       </c>
@@ -14536,8 +14923,11 @@
       <c r="C366" s="0" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D366" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
         <v>5</v>
       </c>
@@ -14547,8 +14937,11 @@
       <c r="C367" s="0" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D367" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
         <v>5</v>
       </c>
@@ -14558,8 +14951,11 @@
       <c r="C368" s="0" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D368" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
         <v>5</v>
       </c>
@@ -14569,8 +14965,11 @@
       <c r="C369" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D369" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
         <v>5</v>
       </c>
@@ -14580,8 +14979,11 @@
       <c r="C370" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D370" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
         <v>5</v>
       </c>
@@ -14591,8 +14993,11 @@
       <c r="C371" s="0" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D371" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
         <v>5</v>
       </c>
@@ -14602,8 +15007,11 @@
       <c r="C372" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D372" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
         <v>5</v>
       </c>
@@ -14613,8 +15021,11 @@
       <c r="C373" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D373" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
         <v>5</v>
       </c>
@@ -14624,8 +15035,11 @@
       <c r="C374" s="0" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D374" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
         <v>5</v>
       </c>
@@ -14635,8 +15049,11 @@
       <c r="C375" s="0" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D375" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
         <v>5</v>
       </c>
@@ -14646,8 +15063,11 @@
       <c r="C376" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D376" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
         <v>5</v>
       </c>
@@ -14657,8 +15077,11 @@
       <c r="C377" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D377" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
         <v>5</v>
       </c>
@@ -14668,8 +15091,11 @@
       <c r="C378" s="0" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D378" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
         <v>5</v>
       </c>
@@ -14679,8 +15105,11 @@
       <c r="C379" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D379" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
         <v>5</v>
       </c>
@@ -14689,6 +15118,9 @@
       </c>
       <c r="C380" s="0" t="s">
         <v>453</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14702,7 +15134,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
         <v>5</v>
       </c>
@@ -14712,8 +15144,11 @@
       <c r="C382" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D382" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
         <v>5</v>
       </c>
@@ -14723,8 +15158,11 @@
       <c r="C383" s="0" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D383" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
         <v>5</v>
       </c>
@@ -14734,8 +15172,11 @@
       <c r="C384" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D384" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
         <v>5</v>
       </c>
@@ -14745,8 +15186,11 @@
       <c r="C385" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D385" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
         <v>5</v>
       </c>
@@ -14756,8 +15200,11 @@
       <c r="C386" s="0" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D386" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
         <v>5</v>
       </c>
@@ -14767,8 +15214,11 @@
       <c r="C387" s="0" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D387" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
         <v>5</v>
       </c>
@@ -14778,8 +15228,11 @@
       <c r="C388" s="0" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D388" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
         <v>5</v>
       </c>
@@ -14789,8 +15242,11 @@
       <c r="C389" s="0" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D389" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
         <v>4</v>
       </c>
@@ -14800,8 +15256,11 @@
       <c r="C390" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D390" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
         <v>4</v>
       </c>
@@ -14811,8 +15270,11 @@
       <c r="C391" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D391" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
         <v>4</v>
       </c>
@@ -14822,8 +15284,11 @@
       <c r="C392" s="0" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D392" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
         <v>4</v>
       </c>
@@ -14833,8 +15298,11 @@
       <c r="C393" s="0" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D393" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
         <v>4</v>
       </c>
@@ -14844,8 +15312,11 @@
       <c r="C394" s="0" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D394" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
         <v>4</v>
       </c>
@@ -14855,8 +15326,11 @@
       <c r="C395" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D395" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
         <v>4</v>
       </c>
@@ -14866,8 +15340,11 @@
       <c r="C396" s="0" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D396" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
         <v>4</v>
       </c>
@@ -14877,8 +15354,11 @@
       <c r="C397" s="0" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D397" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
         <v>4</v>
       </c>
@@ -14888,8 +15368,11 @@
       <c r="C398" s="0" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D398" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
         <v>4</v>
       </c>
@@ -14899,8 +15382,11 @@
       <c r="C399" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D399" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
         <v>4</v>
       </c>
@@ -14910,8 +15396,11 @@
       <c r="C400" s="0" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D400" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <v>4</v>
       </c>
@@ -14921,8 +15410,11 @@
       <c r="C401" s="0" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D401" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
         <v>4</v>
       </c>
@@ -14932,8 +15424,11 @@
       <c r="C402" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D402" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
         <v>4</v>
       </c>
@@ -14943,8 +15438,11 @@
       <c r="C403" s="0" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D403" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
         <v>4</v>
       </c>
@@ -14954,8 +15452,11 @@
       <c r="C404" s="0" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D404" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
         <v>4</v>
       </c>
@@ -14965,8 +15466,11 @@
       <c r="C405" s="0" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D405" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
         <v>4</v>
       </c>
@@ -14976,8 +15480,11 @@
       <c r="C406" s="0" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D406" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
         <v>4</v>
       </c>
@@ -14987,8 +15494,11 @@
       <c r="C407" s="0" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D407" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
         <v>4</v>
       </c>
@@ -14998,8 +15508,11 @@
       <c r="C408" s="0" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D408" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
         <v>4</v>
       </c>
@@ -15009,8 +15522,11 @@
       <c r="C409" s="0" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D409" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="n">
         <v>4</v>
       </c>
@@ -15020,8 +15536,11 @@
       <c r="C410" s="0" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D410" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
         <v>4</v>
       </c>
@@ -15030,6 +15549,9 @@
       </c>
       <c r="C411" s="0" t="s">
         <v>493</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15043,7 +15565,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
         <v>4</v>
       </c>
@@ -15052,6 +15574,9 @@
       </c>
       <c r="C413" s="1" t="s">
         <v>496</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15065,7 +15590,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
         <v>4</v>
       </c>
@@ -15075,8 +15600,11 @@
       <c r="C415" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D415" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
         <v>4</v>
       </c>
@@ -15086,8 +15614,11 @@
       <c r="C416" s="0" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D416" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
         <v>4</v>
       </c>
@@ -15097,8 +15628,11 @@
       <c r="C417" s="0" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D417" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
         <v>4</v>
       </c>
@@ -15108,8 +15642,11 @@
       <c r="C418" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D418" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
         <v>4</v>
       </c>
@@ -15119,8 +15656,11 @@
       <c r="C419" s="0" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D419" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
         <v>4</v>
       </c>
@@ -15130,8 +15670,11 @@
       <c r="C420" s="0" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D420" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
         <v>4</v>
       </c>
@@ -15141,8 +15684,11 @@
       <c r="C421" s="0" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D421" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
         <v>4</v>
       </c>
@@ -15152,8 +15698,11 @@
       <c r="C422" s="0" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D422" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
         <v>4</v>
       </c>
@@ -15163,8 +15712,11 @@
       <c r="C423" s="0" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D423" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
         <v>4</v>
       </c>
@@ -15174,8 +15726,11 @@
       <c r="C424" s="0" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D424" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
         <v>4</v>
       </c>
@@ -15185,8 +15740,11 @@
       <c r="C425" s="0" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D425" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
         <v>4</v>
       </c>
@@ -15196,8 +15754,11 @@
       <c r="C426" s="0" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D426" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
         <v>4</v>
       </c>
@@ -15207,8 +15768,11 @@
       <c r="C427" s="0" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D427" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
         <v>4</v>
       </c>
@@ -15217,6 +15781,9 @@
       </c>
       <c r="C428" s="0" t="s">
         <v>513</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,7 +15797,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
         <v>4</v>
       </c>
@@ -15239,6 +15806,9 @@
       </c>
       <c r="C430" s="0" t="s">
         <v>515</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15252,7 +15822,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
         <v>4</v>
       </c>
@@ -15261,6 +15831,9 @@
       </c>
       <c r="C432" s="0" t="s">
         <v>518</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,7 +15847,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
         <v>4</v>
       </c>
@@ -15284,8 +15857,11 @@
       <c r="C434" s="0" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D434" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
         <v>4</v>
       </c>
@@ -15295,8 +15871,11 @@
       <c r="C435" s="0" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D435" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
         <v>4</v>
       </c>
@@ -15306,8 +15885,11 @@
       <c r="C436" s="0" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D436" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
         <v>4</v>
       </c>
@@ -15317,8 +15899,11 @@
       <c r="C437" s="0" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D437" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
         <v>4</v>
       </c>
@@ -15328,8 +15913,11 @@
       <c r="C438" s="0" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D438" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
         <v>4</v>
       </c>
@@ -15339,8 +15927,11 @@
       <c r="C439" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D439" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
         <v>4</v>
       </c>
@@ -15350,8 +15941,11 @@
       <c r="C440" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D440" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
         <v>4</v>
       </c>
@@ -15361,8 +15955,11 @@
       <c r="C441" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D441" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
         <v>4</v>
       </c>
@@ -15372,8 +15969,11 @@
       <c r="C442" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D442" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
         <v>4</v>
       </c>
@@ -15383,8 +15983,11 @@
       <c r="C443" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D443" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
         <v>4</v>
       </c>
@@ -15394,8 +15997,11 @@
       <c r="C444" s="0" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D444" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
         <v>4</v>
       </c>
@@ -15404,6 +16010,9 @@
       </c>
       <c r="C445" s="1" t="s">
         <v>538</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
+++ b/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6467" uniqueCount="3215">
   <si>
     <t xml:space="preserve">na</t>
   </si>
@@ -9674,7 +9674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9726,13 +9726,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -9798,7 +9791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9823,15 +9816,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9854,11 +9843,11 @@
   </sheetPr>
   <dimension ref="A1:D2866"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D440" activeCellId="0" sqref="D440:D445"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A766" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D777" activeCellId="0" sqref="D777:D786"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -16026,7 +16015,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
         <v>4</v>
       </c>
@@ -16036,8 +16025,11 @@
       <c r="C447" s="0" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D447" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="n">
         <v>4</v>
       </c>
@@ -16047,8 +16039,11 @@
       <c r="C448" s="0" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D448" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="n">
         <v>4</v>
       </c>
@@ -16058,8 +16053,11 @@
       <c r="C449" s="0" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D449" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
         <v>4</v>
       </c>
@@ -16069,8 +16067,11 @@
       <c r="C450" s="0" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D450" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="n">
         <v>4</v>
       </c>
@@ -16080,8 +16081,11 @@
       <c r="C451" s="0" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D451" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="n">
         <v>4</v>
       </c>
@@ -16091,8 +16095,11 @@
       <c r="C452" s="0" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D452" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="n">
         <v>4</v>
       </c>
@@ -16102,8 +16109,11 @@
       <c r="C453" s="0" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D453" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="n">
         <v>4</v>
       </c>
@@ -16113,8 +16123,11 @@
       <c r="C454" s="0" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D454" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="n">
         <v>4</v>
       </c>
@@ -16124,8 +16137,11 @@
       <c r="C455" s="0" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D455" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="n">
         <v>4</v>
       </c>
@@ -16135,8 +16151,11 @@
       <c r="C456" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D456" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="n">
         <v>4</v>
       </c>
@@ -16146,8 +16165,11 @@
       <c r="C457" s="0" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D457" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="n">
         <v>4</v>
       </c>
@@ -16157,8 +16179,11 @@
       <c r="C458" s="0" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D458" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="n">
         <v>4</v>
       </c>
@@ -16168,8 +16193,11 @@
       <c r="C459" s="0" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D459" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="n">
         <v>4</v>
       </c>
@@ -16179,8 +16207,11 @@
       <c r="C460" s="0" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D460" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="n">
         <v>4</v>
       </c>
@@ -16190,8 +16221,11 @@
       <c r="C461" s="0" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D461" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="n">
         <v>4</v>
       </c>
@@ -16201,8 +16235,11 @@
       <c r="C462" s="0" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D462" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="n">
         <v>4</v>
       </c>
@@ -16211,6 +16248,9 @@
       </c>
       <c r="C463" s="0" t="s">
         <v>557</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16224,7 +16264,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="n">
         <v>4</v>
       </c>
@@ -16234,8 +16274,11 @@
       <c r="C465" s="0" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D465" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="n">
         <v>4</v>
       </c>
@@ -16245,8 +16288,11 @@
       <c r="C466" s="0" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D466" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="n">
         <v>4</v>
       </c>
@@ -16256,8 +16302,11 @@
       <c r="C467" s="0" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D467" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="n">
         <v>4</v>
       </c>
@@ -16267,8 +16316,11 @@
       <c r="C468" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D468" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="n">
         <v>4</v>
       </c>
@@ -16278,8 +16330,11 @@
       <c r="C469" s="0" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D469" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="n">
         <v>4</v>
       </c>
@@ -16289,8 +16344,11 @@
       <c r="C470" s="0" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D470" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="n">
         <v>4</v>
       </c>
@@ -16300,8 +16358,11 @@
       <c r="C471" s="0" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D471" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="n">
         <v>4</v>
       </c>
@@ -16311,8 +16372,11 @@
       <c r="C472" s="0" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D472" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="n">
         <v>4</v>
       </c>
@@ -16322,8 +16386,11 @@
       <c r="C473" s="0" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D473" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="n">
         <v>4</v>
       </c>
@@ -16333,8 +16400,11 @@
       <c r="C474" s="0" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D474" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="n">
         <v>4</v>
       </c>
@@ -16344,8 +16414,11 @@
       <c r="C475" s="0" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D475" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="n">
         <v>4</v>
       </c>
@@ -16355,8 +16428,11 @@
       <c r="C476" s="0" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D476" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="n">
         <v>4</v>
       </c>
@@ -16366,8 +16442,11 @@
       <c r="C477" s="0" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D477" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="n">
         <v>4</v>
       </c>
@@ -16377,8 +16456,11 @@
       <c r="C478" s="0" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D478" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="n">
         <v>4</v>
       </c>
@@ -16388,9 +16470,11 @@
       <c r="C479" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D479" s="5"/>
-    </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D479" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="n">
         <v>4</v>
       </c>
@@ -16400,8 +16484,11 @@
       <c r="C480" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D480" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="n">
         <v>4</v>
       </c>
@@ -16411,8 +16498,11 @@
       <c r="C481" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D481" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="n">
         <v>4</v>
       </c>
@@ -16422,8 +16512,11 @@
       <c r="C482" s="0" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D482" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="n">
         <v>4</v>
       </c>
@@ -16433,8 +16526,11 @@
       <c r="C483" s="0" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D483" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="n">
         <v>4</v>
       </c>
@@ -16444,8 +16540,11 @@
       <c r="C484" s="0" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D484" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="n">
         <v>4</v>
       </c>
@@ -16455,8 +16554,11 @@
       <c r="C485" s="0" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D485" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="n">
         <v>4</v>
       </c>
@@ -16466,8 +16568,11 @@
       <c r="C486" s="0" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D486" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="n">
         <v>4</v>
       </c>
@@ -16477,8 +16582,11 @@
       <c r="C487" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D487" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="n">
         <v>4</v>
       </c>
@@ -16487,6 +16595,9 @@
       </c>
       <c r="C488" s="1" t="s">
         <v>589</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16500,7 +16611,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="n">
         <v>4</v>
       </c>
@@ -16510,8 +16621,11 @@
       <c r="C490" s="0" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D490" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="n">
         <v>4</v>
       </c>
@@ -16521,8 +16635,11 @@
       <c r="C491" s="0" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D491" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="n">
         <v>4</v>
       </c>
@@ -16532,8 +16649,11 @@
       <c r="C492" s="0" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D492" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="n">
         <v>4</v>
       </c>
@@ -16543,8 +16663,11 @@
       <c r="C493" s="0" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D493" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="n">
         <v>4</v>
       </c>
@@ -16554,8 +16677,11 @@
       <c r="C494" s="0" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D494" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="n">
         <v>4</v>
       </c>
@@ -16565,8 +16691,11 @@
       <c r="C495" s="0" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D495" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="n">
         <v>4</v>
       </c>
@@ -16575,6 +16704,9 @@
       </c>
       <c r="C496" s="0" t="s">
         <v>597</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16588,7 +16720,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="n">
         <v>4</v>
       </c>
@@ -16598,8 +16730,11 @@
       <c r="C498" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D498" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="n">
         <v>4</v>
       </c>
@@ -16609,8 +16744,11 @@
       <c r="C499" s="0" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D499" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="n">
         <v>4</v>
       </c>
@@ -16619,6 +16757,9 @@
       </c>
       <c r="C500" s="0" t="s">
         <v>602</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16632,7 +16773,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="n">
         <v>4</v>
       </c>
@@ -16642,8 +16783,11 @@
       <c r="C502" s="0" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D502" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="n">
         <v>4</v>
       </c>
@@ -16653,8 +16797,11 @@
       <c r="C503" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D503" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="n">
         <v>4</v>
       </c>
@@ -16664,8 +16811,11 @@
       <c r="C504" s="0" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D504" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="n">
         <v>4</v>
       </c>
@@ -16675,8 +16825,11 @@
       <c r="C505" s="0" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D505" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="n">
         <v>4</v>
       </c>
@@ -16686,8 +16839,11 @@
       <c r="C506" s="0" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D506" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="n">
         <v>4</v>
       </c>
@@ -16697,8 +16853,11 @@
       <c r="C507" s="0" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D507" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="n">
         <v>4</v>
       </c>
@@ -16708,8 +16867,11 @@
       <c r="C508" s="0" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D508" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="n">
         <v>4</v>
       </c>
@@ -16719,8 +16881,11 @@
       <c r="C509" s="0" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D509" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="n">
         <v>4</v>
       </c>
@@ -16730,8 +16895,11 @@
       <c r="C510" s="0" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D510" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="n">
         <v>4</v>
       </c>
@@ -16741,8 +16909,11 @@
       <c r="C511" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D511" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="n">
         <v>4</v>
       </c>
@@ -16752,8 +16923,11 @@
       <c r="C512" s="0" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D512" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="n">
         <v>4</v>
       </c>
@@ -16763,8 +16937,11 @@
       <c r="C513" s="0" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D513" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="n">
         <v>4</v>
       </c>
@@ -16774,8 +16951,11 @@
       <c r="C514" s="0" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D514" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="n">
         <v>4</v>
       </c>
@@ -16785,8 +16965,11 @@
       <c r="C515" s="0" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D515" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="n">
         <v>4</v>
       </c>
@@ -16796,8 +16979,11 @@
       <c r="C516" s="0" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D516" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="n">
         <v>4</v>
       </c>
@@ -16807,8 +16993,11 @@
       <c r="C517" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D517" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="n">
         <v>3</v>
       </c>
@@ -16818,8 +17007,11 @@
       <c r="C518" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D518" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="n">
         <v>3</v>
       </c>
@@ -16829,8 +17021,11 @@
       <c r="C519" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D519" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="n">
         <v>3</v>
       </c>
@@ -16840,8 +17035,11 @@
       <c r="C520" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D520" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="n">
         <v>3</v>
       </c>
@@ -16851,8 +17049,11 @@
       <c r="C521" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D521" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="n">
         <v>3</v>
       </c>
@@ -16862,8 +17063,11 @@
       <c r="C522" s="0" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D522" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="n">
         <v>3</v>
       </c>
@@ -16873,8 +17077,11 @@
       <c r="C523" s="0" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D523" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="n">
         <v>3</v>
       </c>
@@ -16884,8 +17091,11 @@
       <c r="C524" s="0" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D524" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="n">
         <v>3</v>
       </c>
@@ -16895,8 +17105,11 @@
       <c r="C525" s="0" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D525" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="n">
         <v>3</v>
       </c>
@@ -16906,8 +17119,11 @@
       <c r="C526" s="0" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D526" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="n">
         <v>3</v>
       </c>
@@ -16916,6 +17132,9 @@
       </c>
       <c r="C527" s="0" t="s">
         <v>637</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16940,7 +17159,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="n">
         <v>3</v>
       </c>
@@ -16950,8 +17169,11 @@
       <c r="C530" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D530" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="n">
         <v>3</v>
       </c>
@@ -16961,8 +17183,11 @@
       <c r="C531" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D531" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="n">
         <v>3</v>
       </c>
@@ -16972,8 +17197,11 @@
       <c r="C532" s="0" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D532" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="n">
         <v>3</v>
       </c>
@@ -16983,8 +17211,11 @@
       <c r="C533" s="0" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D533" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="n">
         <v>3</v>
       </c>
@@ -16994,8 +17225,11 @@
       <c r="C534" s="0" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D534" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="n">
         <v>3</v>
       </c>
@@ -17005,8 +17239,11 @@
       <c r="C535" s="0" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D535" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="n">
         <v>3</v>
       </c>
@@ -17016,8 +17253,11 @@
       <c r="C536" s="0" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D536" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="n">
         <v>3</v>
       </c>
@@ -17027,8 +17267,11 @@
       <c r="C537" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D537" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="n">
         <v>3</v>
       </c>
@@ -17038,8 +17281,11 @@
       <c r="C538" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D538" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="n">
         <v>3</v>
       </c>
@@ -17049,8 +17295,11 @@
       <c r="C539" s="0" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D539" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="n">
         <v>3</v>
       </c>
@@ -17060,8 +17309,11 @@
       <c r="C540" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D540" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="n">
         <v>3</v>
       </c>
@@ -17071,8 +17323,11 @@
       <c r="C541" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D541" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="n">
         <v>3</v>
       </c>
@@ -17082,8 +17337,11 @@
       <c r="C542" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D542" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="n">
         <v>3</v>
       </c>
@@ -17093,8 +17351,11 @@
       <c r="C543" s="0" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D543" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="n">
         <v>3</v>
       </c>
@@ -17104,8 +17365,11 @@
       <c r="C544" s="0" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D544" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="n">
         <v>3</v>
       </c>
@@ -17115,8 +17379,11 @@
       <c r="C545" s="0" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D545" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="n">
         <v>3</v>
       </c>
@@ -17126,8 +17393,11 @@
       <c r="C546" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D546" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="n">
         <v>3</v>
       </c>
@@ -17137,8 +17407,11 @@
       <c r="C547" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D547" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="n">
         <v>3</v>
       </c>
@@ -17148,8 +17421,11 @@
       <c r="C548" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D548" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="n">
         <v>3</v>
       </c>
@@ -17159,8 +17435,11 @@
       <c r="C549" s="0" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D549" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="n">
         <v>3</v>
       </c>
@@ -17170,8 +17449,11 @@
       <c r="C550" s="0" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D550" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="n">
         <v>3</v>
       </c>
@@ -17181,8 +17463,11 @@
       <c r="C551" s="0" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D551" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="n">
         <v>3</v>
       </c>
@@ -17192,8 +17477,11 @@
       <c r="C552" s="0" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D552" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="n">
         <v>3</v>
       </c>
@@ -17203,8 +17491,11 @@
       <c r="C553" s="0" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D553" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="n">
         <v>3</v>
       </c>
@@ -17214,8 +17505,11 @@
       <c r="C554" s="0" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D554" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="n">
         <v>3</v>
       </c>
@@ -17225,8 +17519,11 @@
       <c r="C555" s="0" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D555" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="n">
         <v>3</v>
       </c>
@@ -17236,8 +17533,11 @@
       <c r="C556" s="0" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D556" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="n">
         <v>3</v>
       </c>
@@ -17247,8 +17547,11 @@
       <c r="C557" s="0" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D557" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="n">
         <v>3</v>
       </c>
@@ -17258,8 +17561,11 @@
       <c r="C558" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D558" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="n">
         <v>3</v>
       </c>
@@ -17268,6 +17574,9 @@
       </c>
       <c r="C559" s="0" t="s">
         <v>677</v>
+      </c>
+      <c r="D559" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17292,7 +17601,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="n">
         <v>3</v>
       </c>
@@ -17302,8 +17611,11 @@
       <c r="C562" s="0" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D562" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="n">
         <v>3</v>
       </c>
@@ -17313,8 +17625,11 @@
       <c r="C563" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D563" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="n">
         <v>3</v>
       </c>
@@ -17324,8 +17639,11 @@
       <c r="C564" s="0" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D564" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="n">
         <v>3</v>
       </c>
@@ -17335,8 +17653,11 @@
       <c r="C565" s="0" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D565" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="n">
         <v>3</v>
       </c>
@@ -17346,8 +17667,11 @@
       <c r="C566" s="0" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D566" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="n">
         <v>3</v>
       </c>
@@ -17357,8 +17681,11 @@
       <c r="C567" s="0" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D567" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="n">
         <v>3</v>
       </c>
@@ -17368,8 +17695,11 @@
       <c r="C568" s="0" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D568" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="n">
         <v>3</v>
       </c>
@@ -17379,8 +17709,11 @@
       <c r="C569" s="0" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D569" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="n">
         <v>3</v>
       </c>
@@ -17390,8 +17723,11 @@
       <c r="C570" s="0" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D570" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="n">
         <v>3</v>
       </c>
@@ -17401,8 +17737,11 @@
       <c r="C571" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D571" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="n">
         <v>3</v>
       </c>
@@ -17412,8 +17751,11 @@
       <c r="C572" s="0" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D572" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="n">
         <v>3</v>
       </c>
@@ -17423,8 +17765,11 @@
       <c r="C573" s="0" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D573" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="n">
         <v>3</v>
       </c>
@@ -17434,8 +17779,11 @@
       <c r="C574" s="0" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D574" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="n">
         <v>3</v>
       </c>
@@ -17445,8 +17793,11 @@
       <c r="C575" s="0" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D575" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="n">
         <v>3</v>
       </c>
@@ -17456,8 +17807,11 @@
       <c r="C576" s="0" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D576" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="n">
         <v>3</v>
       </c>
@@ -17467,8 +17821,11 @@
       <c r="C577" s="0" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D577" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="n">
         <v>3</v>
       </c>
@@ -17478,8 +17835,11 @@
       <c r="C578" s="0" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D578" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="n">
         <v>3</v>
       </c>
@@ -17489,8 +17849,11 @@
       <c r="C579" s="0" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D579" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="n">
         <v>3</v>
       </c>
@@ -17500,8 +17863,11 @@
       <c r="C580" s="0" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D580" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="n">
         <v>3</v>
       </c>
@@ -17511,8 +17877,11 @@
       <c r="C581" s="0" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D581" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="n">
         <v>3</v>
       </c>
@@ -17522,8 +17891,11 @@
       <c r="C582" s="0" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D582" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="n">
         <v>3</v>
       </c>
@@ -17533,8 +17905,11 @@
       <c r="C583" s="0" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D583" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="n">
         <v>3</v>
       </c>
@@ -17544,8 +17919,11 @@
       <c r="C584" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D584" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="n">
         <v>3</v>
       </c>
@@ -17555,8 +17933,11 @@
       <c r="C585" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D585" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="n">
         <v>3</v>
       </c>
@@ -17566,8 +17947,11 @@
       <c r="C586" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D586" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="n">
         <v>3</v>
       </c>
@@ -17577,8 +17961,11 @@
       <c r="C587" s="0" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D587" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="n">
         <v>3</v>
       </c>
@@ -17588,8 +17975,11 @@
       <c r="C588" s="0" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D588" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="n">
         <v>3</v>
       </c>
@@ -17599,8 +17989,11 @@
       <c r="C589" s="0" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D589" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="n">
         <v>3</v>
       </c>
@@ -17610,8 +18003,11 @@
       <c r="C590" s="0" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D590" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="n">
         <v>3</v>
       </c>
@@ -17621,8 +18017,11 @@
       <c r="C591" s="0" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D591" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="n">
         <v>3</v>
       </c>
@@ -17632,8 +18031,11 @@
       <c r="C592" s="0" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D592" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="n">
         <v>3</v>
       </c>
@@ -17643,8 +18045,11 @@
       <c r="C593" s="0" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D593" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="n">
         <v>3</v>
       </c>
@@ -17654,8 +18059,11 @@
       <c r="C594" s="0" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D594" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="n">
         <v>3</v>
       </c>
@@ -17665,8 +18073,11 @@
       <c r="C595" s="0" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D595" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="n">
         <v>3</v>
       </c>
@@ -17676,8 +18087,11 @@
       <c r="C596" s="0" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D596" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="n">
         <v>3</v>
       </c>
@@ -17687,8 +18101,11 @@
       <c r="C597" s="0" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D597" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="n">
         <v>3</v>
       </c>
@@ -17698,8 +18115,11 @@
       <c r="C598" s="0" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D598" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="n">
         <v>3</v>
       </c>
@@ -17709,8 +18129,11 @@
       <c r="C599" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D599" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="n">
         <v>3</v>
       </c>
@@ -17720,8 +18143,11 @@
       <c r="C600" s="0" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D600" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="n">
         <v>3</v>
       </c>
@@ -17731,8 +18157,11 @@
       <c r="C601" s="0" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D601" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="n">
         <v>3</v>
       </c>
@@ -17742,8 +18171,11 @@
       <c r="C602" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D602" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="n">
         <v>3</v>
       </c>
@@ -17753,8 +18185,11 @@
       <c r="C603" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D603" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="n">
         <v>3</v>
       </c>
@@ -17764,8 +18199,11 @@
       <c r="C604" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D604" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="n">
         <v>3</v>
       </c>
@@ -17775,8 +18213,11 @@
       <c r="C605" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D605" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="n">
         <v>3</v>
       </c>
@@ -17786,8 +18227,11 @@
       <c r="C606" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D606" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="n">
         <v>3</v>
       </c>
@@ -17797,8 +18241,11 @@
       <c r="C607" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D607" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="n">
         <v>3</v>
       </c>
@@ -17808,8 +18255,11 @@
       <c r="C608" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D608" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="n">
         <v>3</v>
       </c>
@@ -17819,8 +18269,11 @@
       <c r="C609" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D609" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="n">
         <v>3</v>
       </c>
@@ -17830,8 +18283,11 @@
       <c r="C610" s="0" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D610" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="n">
         <v>3</v>
       </c>
@@ -17841,8 +18297,11 @@
       <c r="C611" s="0" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D611" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="n">
         <v>3</v>
       </c>
@@ -17852,8 +18311,11 @@
       <c r="C612" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D612" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="n">
         <v>3</v>
       </c>
@@ -17863,8 +18325,11 @@
       <c r="C613" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D613" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="n">
         <v>3</v>
       </c>
@@ -17874,8 +18339,11 @@
       <c r="C614" s="0" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D614" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="n">
         <v>3</v>
       </c>
@@ -17885,8 +18353,11 @@
       <c r="C615" s="0" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D615" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="n">
         <v>3</v>
       </c>
@@ -17896,8 +18367,11 @@
       <c r="C616" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D616" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="n">
         <v>3</v>
       </c>
@@ -17907,8 +18381,11 @@
       <c r="C617" s="0" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D617" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="n">
         <v>3</v>
       </c>
@@ -17918,8 +18395,11 @@
       <c r="C618" s="0" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D618" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="n">
         <v>3</v>
       </c>
@@ -17929,8 +18409,11 @@
       <c r="C619" s="0" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D619" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="n">
         <v>3</v>
       </c>
@@ -17940,8 +18423,11 @@
       <c r="C620" s="0" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D620" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="n">
         <v>3</v>
       </c>
@@ -17951,8 +18437,11 @@
       <c r="C621" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D621" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="n">
         <v>3</v>
       </c>
@@ -17962,8 +18451,11 @@
       <c r="C622" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D622" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="n">
         <v>3</v>
       </c>
@@ -17973,8 +18465,11 @@
       <c r="C623" s="0" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D623" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="n">
         <v>3</v>
       </c>
@@ -17983,6 +18478,9 @@
       </c>
       <c r="C624" s="0" t="s">
         <v>758</v>
+      </c>
+      <c r="D624" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17996,7 +18494,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="n">
         <v>3</v>
       </c>
@@ -18006,8 +18504,11 @@
       <c r="C626" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D626" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="n">
         <v>3</v>
       </c>
@@ -18016,6 +18517,9 @@
       </c>
       <c r="C627" s="0" t="s">
         <v>763</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18029,7 +18533,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="n">
         <v>3</v>
       </c>
@@ -18039,8 +18543,11 @@
       <c r="C629" s="0" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D629" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="n">
         <v>3</v>
       </c>
@@ -18050,8 +18557,11 @@
       <c r="C630" s="0" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D630" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="n">
         <v>3</v>
       </c>
@@ -18061,8 +18571,11 @@
       <c r="C631" s="0" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D631" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="n">
         <v>3</v>
       </c>
@@ -18072,8 +18585,11 @@
       <c r="C632" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D632" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="n">
         <v>3</v>
       </c>
@@ -18083,8 +18599,11 @@
       <c r="C633" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D633" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="n">
         <v>3</v>
       </c>
@@ -18094,8 +18613,11 @@
       <c r="C634" s="0" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D634" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="n">
         <v>3</v>
       </c>
@@ -18105,8 +18627,11 @@
       <c r="C635" s="0" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D635" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="n">
         <v>3</v>
       </c>
@@ -18116,8 +18641,11 @@
       <c r="C636" s="0" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D636" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="n">
         <v>3</v>
       </c>
@@ -18127,8 +18655,11 @@
       <c r="C637" s="0" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D637" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="n">
         <v>3</v>
       </c>
@@ -18138,8 +18669,11 @@
       <c r="C638" s="0" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D638" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="n">
         <v>3</v>
       </c>
@@ -18149,8 +18683,11 @@
       <c r="C639" s="0" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D639" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="n">
         <v>3</v>
       </c>
@@ -18160,8 +18697,11 @@
       <c r="C640" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D640" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="n">
         <v>3</v>
       </c>
@@ -18171,8 +18711,11 @@
       <c r="C641" s="0" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D641" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="n">
         <v>3</v>
       </c>
@@ -18182,8 +18725,11 @@
       <c r="C642" s="0" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D642" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="n">
         <v>3</v>
       </c>
@@ -18193,8 +18739,11 @@
       <c r="C643" s="0" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D643" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="n">
         <v>3</v>
       </c>
@@ -18204,8 +18753,11 @@
       <c r="C644" s="0" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D644" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="n">
         <v>3</v>
       </c>
@@ -18215,8 +18767,11 @@
       <c r="C645" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D645" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="n">
         <v>3</v>
       </c>
@@ -18226,8 +18781,11 @@
       <c r="C646" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D646" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="n">
         <v>3</v>
       </c>
@@ -18237,8 +18795,11 @@
       <c r="C647" s="0" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D647" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="n">
         <v>3</v>
       </c>
@@ -18248,8 +18809,11 @@
       <c r="C648" s="0" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D648" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="n">
         <v>3</v>
       </c>
@@ -18259,8 +18823,11 @@
       <c r="C649" s="0" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D649" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="n">
         <v>3</v>
       </c>
@@ -18270,8 +18837,11 @@
       <c r="C650" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D650" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="n">
         <v>3</v>
       </c>
@@ -18281,8 +18851,11 @@
       <c r="C651" s="0" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D651" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="n">
         <v>3</v>
       </c>
@@ -18292,8 +18865,11 @@
       <c r="C652" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D652" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="n">
         <v>3</v>
       </c>
@@ -18303,8 +18879,11 @@
       <c r="C653" s="0" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D653" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="n">
         <v>3</v>
       </c>
@@ -18314,8 +18893,11 @@
       <c r="C654" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D654" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="n">
         <v>3</v>
       </c>
@@ -18325,8 +18907,11 @@
       <c r="C655" s="0" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D655" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="n">
         <v>3</v>
       </c>
@@ -18336,8 +18921,11 @@
       <c r="C656" s="0" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D656" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="n">
         <v>3</v>
       </c>
@@ -18347,8 +18935,11 @@
       <c r="C657" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D657" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="n">
         <v>3</v>
       </c>
@@ -18358,8 +18949,11 @@
       <c r="C658" s="0" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D658" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="n">
         <v>3</v>
       </c>
@@ -18368,6 +18962,9 @@
       </c>
       <c r="C659" s="0" t="s">
         <v>802</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18381,7 +18978,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="n">
         <v>3</v>
       </c>
@@ -18391,8 +18988,11 @@
       <c r="C661" s="0" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D661" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="n">
         <v>3</v>
       </c>
@@ -18402,8 +19002,11 @@
       <c r="C662" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D662" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="n">
         <v>3</v>
       </c>
@@ -18413,8 +19016,11 @@
       <c r="C663" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D663" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="n">
         <v>3</v>
       </c>
@@ -18424,8 +19030,11 @@
       <c r="C664" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D664" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="n">
         <v>3</v>
       </c>
@@ -18435,8 +19044,11 @@
       <c r="C665" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D665" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="n">
         <v>3</v>
       </c>
@@ -18445,6 +19057,9 @@
       </c>
       <c r="C666" s="0" t="s">
         <v>813</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18469,7 +19084,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="n">
         <v>3</v>
       </c>
@@ -18479,8 +19094,11 @@
       <c r="C669" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D669" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="n">
         <v>3</v>
       </c>
@@ -18490,8 +19108,11 @@
       <c r="C670" s="0" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D670" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="n">
         <v>3</v>
       </c>
@@ -18501,8 +19122,11 @@
       <c r="C671" s="0" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D671" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="n">
         <v>3</v>
       </c>
@@ -18511,6 +19135,9 @@
       </c>
       <c r="C672" s="0" t="s">
         <v>821</v>
+      </c>
+      <c r="D672" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18524,7 +19151,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="n">
         <v>3</v>
       </c>
@@ -18534,8 +19161,11 @@
       <c r="C674" s="0" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D674" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="n">
         <v>3</v>
       </c>
@@ -18545,8 +19175,11 @@
       <c r="C675" s="0" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D675" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="n">
         <v>3</v>
       </c>
@@ -18556,8 +19189,11 @@
       <c r="C676" s="0" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D676" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="n">
         <v>3</v>
       </c>
@@ -18567,8 +19203,11 @@
       <c r="C677" s="0" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D677" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="n">
         <v>3</v>
       </c>
@@ -18578,8 +19217,11 @@
       <c r="C678" s="0" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D678" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="n">
         <v>3</v>
       </c>
@@ -18589,8 +19231,11 @@
       <c r="C679" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D679" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="n">
         <v>3</v>
       </c>
@@ -18600,8 +19245,11 @@
       <c r="C680" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D680" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="n">
         <v>3</v>
       </c>
@@ -18611,8 +19259,11 @@
       <c r="C681" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D681" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="n">
         <v>3</v>
       </c>
@@ -18622,8 +19273,11 @@
       <c r="C682" s="0" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D682" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="n">
         <v>3</v>
       </c>
@@ -18633,8 +19287,11 @@
       <c r="C683" s="0" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D683" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="n">
         <v>3</v>
       </c>
@@ -18644,8 +19301,11 @@
       <c r="C684" s="0" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D684" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="n">
         <v>3</v>
       </c>
@@ -18655,8 +19315,11 @@
       <c r="C685" s="0" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D685" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="n">
         <v>3</v>
       </c>
@@ -18666,8 +19329,11 @@
       <c r="C686" s="0" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D686" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="n">
         <v>3</v>
       </c>
@@ -18677,8 +19343,11 @@
       <c r="C687" s="0" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D687" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="n">
         <v>3</v>
       </c>
@@ -18688,8 +19357,11 @@
       <c r="C688" s="0" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D688" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="n">
         <v>3</v>
       </c>
@@ -18698,6 +19370,9 @@
       </c>
       <c r="C689" s="0" t="s">
         <v>841</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18711,7 +19386,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="n">
         <v>3</v>
       </c>
@@ -18721,8 +19396,11 @@
       <c r="C691" s="0" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D691" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="n">
         <v>3</v>
       </c>
@@ -18732,8 +19410,11 @@
       <c r="C692" s="0" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D692" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="n">
         <v>3</v>
       </c>
@@ -18743,8 +19424,11 @@
       <c r="C693" s="0" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D693" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="n">
         <v>3</v>
       </c>
@@ -18753,6 +19437,9 @@
       </c>
       <c r="C694" s="0" t="s">
         <v>846</v>
+      </c>
+      <c r="D694" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18766,7 +19453,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="n">
         <v>3</v>
       </c>
@@ -18776,8 +19463,11 @@
       <c r="C696" s="0" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D696" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="n">
         <v>3</v>
       </c>
@@ -18787,8 +19477,11 @@
       <c r="C697" s="0" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D697" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="n">
         <v>3</v>
       </c>
@@ -18798,8 +19491,11 @@
       <c r="C698" s="0" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D698" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="n">
         <v>3</v>
       </c>
@@ -18809,8 +19505,11 @@
       <c r="C699" s="0" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D699" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="n">
         <v>3</v>
       </c>
@@ -18820,8 +19519,11 @@
       <c r="C700" s="0" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D700" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="n">
         <v>3</v>
       </c>
@@ -18831,8 +19533,11 @@
       <c r="C701" s="0" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D701" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="n">
         <v>3</v>
       </c>
@@ -18842,8 +19547,11 @@
       <c r="C702" s="0" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D702" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="n">
         <v>3</v>
       </c>
@@ -18853,8 +19561,11 @@
       <c r="C703" s="0" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D703" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="n">
         <v>3</v>
       </c>
@@ -18864,8 +19575,11 @@
       <c r="C704" s="0" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D704" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="n">
         <v>3</v>
       </c>
@@ -18875,8 +19589,11 @@
       <c r="C705" s="0" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D705" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="n">
         <v>3</v>
       </c>
@@ -18886,8 +19603,11 @@
       <c r="C706" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D706" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="n">
         <v>3</v>
       </c>
@@ -18897,8 +19617,11 @@
       <c r="C707" s="0" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D707" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="n">
         <v>3</v>
       </c>
@@ -18908,8 +19631,11 @@
       <c r="C708" s="0" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D708" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="n">
         <v>3</v>
       </c>
@@ -18919,8 +19645,11 @@
       <c r="C709" s="0" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D709" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="n">
         <v>3</v>
       </c>
@@ -18930,8 +19659,11 @@
       <c r="C710" s="0" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D710" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="n">
         <v>3</v>
       </c>
@@ -18941,8 +19673,11 @@
       <c r="C711" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D711" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="n">
         <v>3</v>
       </c>
@@ -18952,8 +19687,11 @@
       <c r="C712" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D712" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="n">
         <v>3</v>
       </c>
@@ -18962,6 +19700,9 @@
       </c>
       <c r="C713" s="0" t="s">
         <v>868</v>
+      </c>
+      <c r="D713" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18986,7 +19727,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="n">
         <v>2</v>
       </c>
@@ -18996,8 +19737,11 @@
       <c r="C716" s="0" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D716" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="n">
         <v>2</v>
       </c>
@@ -19007,8 +19751,11 @@
       <c r="C717" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D717" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="n">
         <v>2</v>
       </c>
@@ -19018,8 +19765,11 @@
       <c r="C718" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D718" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="n">
         <v>2</v>
       </c>
@@ -19029,8 +19779,11 @@
       <c r="C719" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D719" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="n">
         <v>2</v>
       </c>
@@ -19040,8 +19793,11 @@
       <c r="C720" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D720" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="n">
         <v>2</v>
       </c>
@@ -19051,8 +19807,11 @@
       <c r="C721" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D721" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="n">
         <v>2</v>
       </c>
@@ -19062,8 +19821,11 @@
       <c r="C722" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D722" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="n">
         <v>2</v>
       </c>
@@ -19073,8 +19835,11 @@
       <c r="C723" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D723" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="n">
         <v>2</v>
       </c>
@@ -19084,8 +19849,11 @@
       <c r="C724" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D724" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="n">
         <v>2</v>
       </c>
@@ -19095,8 +19863,11 @@
       <c r="C725" s="0" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D725" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="n">
         <v>2</v>
       </c>
@@ -19106,8 +19877,11 @@
       <c r="C726" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D726" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="n">
         <v>2</v>
       </c>
@@ -19117,8 +19891,11 @@
       <c r="C727" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D727" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="n">
         <v>2</v>
       </c>
@@ -19128,8 +19905,11 @@
       <c r="C728" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D728" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="n">
         <v>2</v>
       </c>
@@ -19139,8 +19919,11 @@
       <c r="C729" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D729" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="n">
         <v>2</v>
       </c>
@@ -19150,8 +19933,11 @@
       <c r="C730" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D730" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="n">
         <v>2</v>
       </c>
@@ -19161,6 +19947,9 @@
       <c r="C731" s="0" t="s">
         <v>900</v>
       </c>
+      <c r="D731" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="n">
@@ -19173,7 +19962,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="n">
         <v>2</v>
       </c>
@@ -19183,6 +19972,9 @@
       <c r="C733" s="0" t="s">
         <v>902</v>
       </c>
+      <c r="D733" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="n">
@@ -19195,7 +19987,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="n">
         <v>2</v>
       </c>
@@ -19205,8 +19997,11 @@
       <c r="C735" s="0" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D735" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="n">
         <v>2</v>
       </c>
@@ -19216,8 +20011,11 @@
       <c r="C736" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D736" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="n">
         <v>2</v>
       </c>
@@ -19227,8 +20025,11 @@
       <c r="C737" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D737" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="n">
         <v>2</v>
       </c>
@@ -19238,8 +20039,11 @@
       <c r="C738" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D738" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="n">
         <v>2</v>
       </c>
@@ -19249,8 +20053,11 @@
       <c r="C739" s="0" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D739" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="n">
         <v>2</v>
       </c>
@@ -19260,8 +20067,11 @@
       <c r="C740" s="0" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D740" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="n">
         <v>2</v>
       </c>
@@ -19271,8 +20081,11 @@
       <c r="C741" s="0" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D741" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="n">
         <v>2</v>
       </c>
@@ -19282,8 +20095,11 @@
       <c r="C742" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D742" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="n">
         <v>2</v>
       </c>
@@ -19293,8 +20109,11 @@
       <c r="C743" s="0" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D743" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="n">
         <v>2</v>
       </c>
@@ -19304,8 +20123,11 @@
       <c r="C744" s="0" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D744" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="n">
         <v>2</v>
       </c>
@@ -19315,6 +20137,9 @@
       <c r="C745" s="0" t="s">
         <v>919</v>
       </c>
+      <c r="D745" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="n">
@@ -19327,7 +20152,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="n">
         <v>2</v>
       </c>
@@ -19337,8 +20162,11 @@
       <c r="C747" s="0" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D747" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="n">
         <v>2</v>
       </c>
@@ -19348,8 +20176,11 @@
       <c r="C748" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D748" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="n">
         <v>2</v>
       </c>
@@ -19359,8 +20190,11 @@
       <c r="C749" s="0" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D749" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="n">
         <v>2</v>
       </c>
@@ -19370,6 +20204,9 @@
       <c r="C750" s="0" t="s">
         <v>925</v>
       </c>
+      <c r="D750" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="n">
@@ -19393,7 +20230,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="n">
         <v>2</v>
       </c>
@@ -19403,8 +20240,11 @@
       <c r="C753" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D753" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="n">
         <v>2</v>
       </c>
@@ -19414,6 +20254,9 @@
       <c r="C754" s="0" t="s">
         <v>930</v>
       </c>
+      <c r="D754" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="n">
@@ -19426,7 +20269,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="n">
         <v>2</v>
       </c>
@@ -19436,8 +20279,11 @@
       <c r="C756" s="0" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D756" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="n">
         <v>2</v>
       </c>
@@ -19447,8 +20293,11 @@
       <c r="C757" s="0" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D757" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="n">
         <v>2</v>
       </c>
@@ -19458,8 +20307,11 @@
       <c r="C758" s="0" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D758" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="n">
         <v>2</v>
       </c>
@@ -19469,6 +20321,9 @@
       <c r="C759" s="1" t="s">
         <v>936</v>
       </c>
+      <c r="D759" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="n">
@@ -19481,7 +20336,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="n">
         <v>2</v>
       </c>
@@ -19491,8 +20346,11 @@
       <c r="C761" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D761" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="n">
         <v>2</v>
       </c>
@@ -19502,8 +20360,11 @@
       <c r="C762" s="0" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D762" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="n">
         <v>2</v>
       </c>
@@ -19513,8 +20374,11 @@
       <c r="C763" s="0" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D763" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="n">
         <v>2</v>
       </c>
@@ -19524,8 +20388,11 @@
       <c r="C764" s="0" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D764" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="n">
         <v>2</v>
       </c>
@@ -19535,8 +20402,11 @@
       <c r="C765" s="0" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D765" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="n">
         <v>2</v>
       </c>
@@ -19546,8 +20416,11 @@
       <c r="C766" s="0" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D766" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="n">
         <v>2</v>
       </c>
@@ -19557,8 +20430,11 @@
       <c r="C767" s="0" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D767" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="n">
         <v>2</v>
       </c>
@@ -19568,8 +20444,11 @@
       <c r="C768" s="0" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D768" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="n">
         <v>2</v>
       </c>
@@ -19579,8 +20458,11 @@
       <c r="C769" s="0" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D769" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="n">
         <v>2</v>
       </c>
@@ -19590,8 +20472,11 @@
       <c r="C770" s="0" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D770" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="n">
         <v>2</v>
       </c>
@@ -19601,8 +20486,11 @@
       <c r="C771" s="0" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D771" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="n">
         <v>2</v>
       </c>
@@ -19612,8 +20500,11 @@
       <c r="C772" s="0" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D772" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="n">
         <v>2</v>
       </c>
@@ -19623,8 +20514,11 @@
       <c r="C773" s="0" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D773" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="n">
         <v>2</v>
       </c>
@@ -19634,8 +20528,11 @@
       <c r="C774" s="0" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D774" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="n">
         <v>2</v>
       </c>
@@ -19645,8 +20542,11 @@
       <c r="C775" s="0" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D775" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="n">
         <v>2</v>
       </c>
@@ -19656,8 +20556,11 @@
       <c r="C776" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D776" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="n">
         <v>2</v>
       </c>
@@ -19667,8 +20570,11 @@
       <c r="C777" s="0" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D777" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="n">
         <v>2</v>
       </c>
@@ -19678,8 +20584,11 @@
       <c r="C778" s="0" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D778" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="n">
         <v>2</v>
       </c>
@@ -19689,8 +20598,11 @@
       <c r="C779" s="0" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D779" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="n">
         <v>2</v>
       </c>
@@ -19700,8 +20612,11 @@
       <c r="C780" s="0" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D780" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="n">
         <v>2</v>
       </c>
@@ -19711,8 +20626,11 @@
       <c r="C781" s="0" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D781" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="n">
         <v>2</v>
       </c>
@@ -19722,8 +20640,11 @@
       <c r="C782" s="0" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D782" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="n">
         <v>2</v>
       </c>
@@ -19733,8 +20654,11 @@
       <c r="C783" s="0" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D783" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="n">
         <v>2</v>
       </c>
@@ -19744,8 +20668,11 @@
       <c r="C784" s="0" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D784" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="n">
         <v>2</v>
       </c>
@@ -19755,8 +20682,11 @@
       <c r="C785" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D785" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="n">
         <v>2</v>
       </c>
@@ -19766,6 +20696,9 @@
       <c r="C786" s="1" t="s">
         <v>968</v>
       </c>
+      <c r="D786" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="n">
@@ -24152,7 +25085,7 @@
       <c r="B1185" s="0" t="s">
         <v>1471</v>
       </c>
-      <c r="C1185" s="6" t="s">
+      <c r="C1185" s="5" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -24427,7 +25360,7 @@
       <c r="B1210" s="0" t="s">
         <v>1514</v>
       </c>
-      <c r="C1210" s="7" t="s">
+      <c r="C1210" s="6" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -24988,7 +25921,7 @@
       <c r="B1261" s="0" t="s">
         <v>1599</v>
       </c>
-      <c r="C1261" s="8" t="s">
+      <c r="C1261" s="7" t="s">
         <v>1600</v>
       </c>
     </row>

--- a/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
+++ b/dźěłowe_wersije/060_sc_sw_marka.tsv_wobdźelane_05.09.2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6467" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6916" uniqueCount="3215">
   <si>
     <t xml:space="preserve">na</t>
   </si>
@@ -9843,8 +9843,8 @@
   </sheetPr>
   <dimension ref="A1:D2866"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A766" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D777" activeCellId="0" sqref="D777:D786"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1270" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1274" activeCellId="0" sqref="D1274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="n">
         <v>2</v>
       </c>
@@ -20710,8 +20710,11 @@
       <c r="C787" s="0" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D787" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="n">
         <v>2</v>
       </c>
@@ -20721,8 +20724,11 @@
       <c r="C788" s="0" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D788" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="n">
         <v>2</v>
       </c>
@@ -20732,8 +20738,11 @@
       <c r="C789" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D789" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="n">
         <v>2</v>
       </c>
@@ -20743,8 +20752,11 @@
       <c r="C790" s="0" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D790" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="n">
         <v>2</v>
       </c>
@@ -20754,8 +20766,11 @@
       <c r="C791" s="0" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D791" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="n">
         <v>2</v>
       </c>
@@ -20764,6 +20779,9 @@
       </c>
       <c r="C792" s="1" t="s">
         <v>976</v>
+      </c>
+      <c r="D792" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20777,7 +20795,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="n">
         <v>2</v>
       </c>
@@ -20787,8 +20805,11 @@
       <c r="C794" s="0" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D794" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="n">
         <v>2</v>
       </c>
@@ -20798,8 +20819,11 @@
       <c r="C795" s="0" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D795" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="n">
         <v>2</v>
       </c>
@@ -20809,8 +20833,11 @@
       <c r="C796" s="0" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D796" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="n">
         <v>2</v>
       </c>
@@ -20820,8 +20847,11 @@
       <c r="C797" s="0" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D797" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="n">
         <v>2</v>
       </c>
@@ -20831,8 +20861,11 @@
       <c r="C798" s="0" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D798" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="n">
         <v>2</v>
       </c>
@@ -20842,8 +20875,11 @@
       <c r="C799" s="0" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D799" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="n">
         <v>2</v>
       </c>
@@ -20853,8 +20889,11 @@
       <c r="C800" s="0" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D800" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="n">
         <v>2</v>
       </c>
@@ -20864,8 +20903,11 @@
       <c r="C801" s="0" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D801" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="n">
         <v>2</v>
       </c>
@@ -20875,8 +20917,11 @@
       <c r="C802" s="0" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D802" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="n">
         <v>2</v>
       </c>
@@ -20886,8 +20931,11 @@
       <c r="C803" s="0" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D803" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="n">
         <v>2</v>
       </c>
@@ -20897,8 +20945,11 @@
       <c r="C804" s="0" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D804" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="n">
         <v>2</v>
       </c>
@@ -20908,8 +20959,11 @@
       <c r="C805" s="0" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D805" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="n">
         <v>2</v>
       </c>
@@ -20919,8 +20973,11 @@
       <c r="C806" s="0" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D806" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="n">
         <v>2</v>
       </c>
@@ -20930,8 +20987,11 @@
       <c r="C807" s="0" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D807" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="n">
         <v>2</v>
       </c>
@@ -20941,8 +21001,11 @@
       <c r="C808" s="0" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D808" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="n">
         <v>2</v>
       </c>
@@ -20951,6 +21014,9 @@
       </c>
       <c r="C809" s="0" t="s">
         <v>994</v>
+      </c>
+      <c r="D809" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20975,7 +21041,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="n">
         <v>2</v>
       </c>
@@ -20985,8 +21051,11 @@
       <c r="C812" s="0" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D812" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="n">
         <v>2</v>
       </c>
@@ -20996,8 +21065,11 @@
       <c r="C813" s="0" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D813" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="n">
         <v>2</v>
       </c>
@@ -21007,8 +21079,11 @@
       <c r="C814" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D814" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="n">
         <v>2</v>
       </c>
@@ -21018,8 +21093,11 @@
       <c r="C815" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D815" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="n">
         <v>2</v>
       </c>
@@ -21029,8 +21107,11 @@
       <c r="C816" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D816" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="n">
         <v>2</v>
       </c>
@@ -21040,8 +21121,11 @@
       <c r="C817" s="0" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D817" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="n">
         <v>2</v>
       </c>
@@ -21051,8 +21135,11 @@
       <c r="C818" s="0" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D818" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="n">
         <v>2</v>
       </c>
@@ -21062,8 +21149,11 @@
       <c r="C819" s="0" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D819" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="n">
         <v>2</v>
       </c>
@@ -21073,8 +21163,11 @@
       <c r="C820" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D820" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="n">
         <v>2</v>
       </c>
@@ -21084,8 +21177,11 @@
       <c r="C821" s="0" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D821" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="n">
         <v>2</v>
       </c>
@@ -21095,8 +21191,11 @@
       <c r="C822" s="0" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D822" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="n">
         <v>2</v>
       </c>
@@ -21106,8 +21205,11 @@
       <c r="C823" s="0" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D823" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="n">
         <v>2</v>
       </c>
@@ -21117,8 +21219,11 @@
       <c r="C824" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D824" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="n">
         <v>2</v>
       </c>
@@ -21128,8 +21233,11 @@
       <c r="C825" s="0" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D825" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="n">
         <v>2</v>
       </c>
@@ -21139,8 +21247,11 @@
       <c r="C826" s="0" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D826" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="n">
         <v>2</v>
       </c>
@@ -21150,8 +21261,11 @@
       <c r="C827" s="0" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D827" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="n">
         <v>2</v>
       </c>
@@ -21160,6 +21274,9 @@
       </c>
       <c r="C828" s="0" t="s">
         <v>1018</v>
+      </c>
+      <c r="D828" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21206,7 +21323,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="n">
         <v>2</v>
       </c>
@@ -21216,8 +21333,11 @@
       <c r="C833" s="0" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D833" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="n">
         <v>2</v>
       </c>
@@ -21227,8 +21347,11 @@
       <c r="C834" s="0" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D834" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="n">
         <v>2</v>
       </c>
@@ -21238,8 +21361,11 @@
       <c r="C835" s="0" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D835" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="n">
         <v>2</v>
       </c>
@@ -21249,8 +21375,11 @@
       <c r="C836" s="0" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D836" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="n">
         <v>2</v>
       </c>
@@ -21260,8 +21389,11 @@
       <c r="C837" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D837" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="n">
         <v>2</v>
       </c>
@@ -21271,8 +21403,11 @@
       <c r="C838" s="0" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D838" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="n">
         <v>2</v>
       </c>
@@ -21282,8 +21417,11 @@
       <c r="C839" s="0" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D839" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="n">
         <v>2</v>
       </c>
@@ -21293,8 +21431,11 @@
       <c r="C840" s="0" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D840" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="n">
         <v>2</v>
       </c>
@@ -21304,8 +21445,11 @@
       <c r="C841" s="0" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D841" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="n">
         <v>2</v>
       </c>
@@ -21315,8 +21459,11 @@
       <c r="C842" s="1" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D842" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="n">
         <v>2</v>
       </c>
@@ -21326,8 +21473,11 @@
       <c r="C843" s="0" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D843" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="n">
         <v>2</v>
       </c>
@@ -21337,8 +21487,11 @@
       <c r="C844" s="0" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D844" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="n">
         <v>2</v>
       </c>
@@ -21348,8 +21501,11 @@
       <c r="C845" s="0" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D845" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="n">
         <v>2</v>
       </c>
@@ -21359,8 +21515,11 @@
       <c r="C846" s="0" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D846" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="n">
         <v>2</v>
       </c>
@@ -21370,8 +21529,11 @@
       <c r="C847" s="0" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D847" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="n">
         <v>2</v>
       </c>
@@ -21381,8 +21543,11 @@
       <c r="C848" s="0" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D848" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="n">
         <v>2</v>
       </c>
@@ -21392,8 +21557,11 @@
       <c r="C849" s="0" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D849" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="n">
         <v>2</v>
       </c>
@@ -21403,8 +21571,11 @@
       <c r="C850" s="0" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D850" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="n">
         <v>2</v>
       </c>
@@ -21414,8 +21585,11 @@
       <c r="C851" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D851" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="n">
         <v>2</v>
       </c>
@@ -21425,8 +21599,11 @@
       <c r="C852" s="0" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D852" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="n">
         <v>2</v>
       </c>
@@ -21436,8 +21613,11 @@
       <c r="C853" s="0" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D853" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="n">
         <v>2</v>
       </c>
@@ -21447,8 +21627,11 @@
       <c r="C854" s="0" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D854" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="n">
         <v>2</v>
       </c>
@@ -21458,8 +21641,11 @@
       <c r="C855" s="0" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D855" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="n">
         <v>2</v>
       </c>
@@ -21469,8 +21655,11 @@
       <c r="C856" s="0" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D856" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="n">
         <v>2</v>
       </c>
@@ -21480,8 +21669,11 @@
       <c r="C857" s="0" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D857" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="n">
         <v>2</v>
       </c>
@@ -21491,8 +21683,11 @@
       <c r="C858" s="0" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D858" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="n">
         <v>2</v>
       </c>
@@ -21502,8 +21697,11 @@
       <c r="C859" s="0" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D859" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="n">
         <v>2</v>
       </c>
@@ -21513,8 +21711,11 @@
       <c r="C860" s="0" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D860" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="n">
         <v>2</v>
       </c>
@@ -21524,8 +21725,11 @@
       <c r="C861" s="0" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D861" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="n">
         <v>2</v>
       </c>
@@ -21535,8 +21739,11 @@
       <c r="C862" s="0" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D862" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="n">
         <v>2</v>
       </c>
@@ -21546,8 +21753,11 @@
       <c r="C863" s="1" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D863" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="n">
         <v>2</v>
       </c>
@@ -21557,8 +21767,11 @@
       <c r="C864" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D864" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="n">
         <v>2</v>
       </c>
@@ -21568,8 +21781,11 @@
       <c r="C865" s="1" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D865" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="n">
         <v>2</v>
       </c>
@@ -21579,8 +21795,11 @@
       <c r="C866" s="0" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D866" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="n">
         <v>2</v>
       </c>
@@ -21589,6 +21808,9 @@
       </c>
       <c r="C867" s="0" t="s">
         <v>1065</v>
+      </c>
+      <c r="D867" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21602,7 +21824,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="n">
         <v>2</v>
       </c>
@@ -21612,8 +21834,11 @@
       <c r="C869" s="0" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D869" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="n">
         <v>2</v>
       </c>
@@ -21623,8 +21848,11 @@
       <c r="C870" s="0" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D870" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="n">
         <v>2</v>
       </c>
@@ -21634,8 +21862,11 @@
       <c r="C871" s="0" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D871" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="n">
         <v>2</v>
       </c>
@@ -21645,8 +21876,11 @@
       <c r="C872" s="0" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D872" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="n">
         <v>2</v>
       </c>
@@ -21656,8 +21890,11 @@
       <c r="C873" s="0" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D873" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="n">
         <v>2</v>
       </c>
@@ -21667,8 +21904,11 @@
       <c r="C874" s="0" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D874" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="n">
         <v>2</v>
       </c>
@@ -21678,8 +21918,11 @@
       <c r="C875" s="0" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D875" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="n">
         <v>2</v>
       </c>
@@ -21689,8 +21932,11 @@
       <c r="C876" s="0" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D876" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="n">
         <v>2</v>
       </c>
@@ -21700,8 +21946,11 @@
       <c r="C877" s="0" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D877" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="n">
         <v>2</v>
       </c>
@@ -21711,8 +21960,11 @@
       <c r="C878" s="0" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D878" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="n">
         <v>2</v>
       </c>
@@ -21722,8 +21974,11 @@
       <c r="C879" s="0" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D879" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="n">
         <v>2</v>
       </c>
@@ -21733,8 +21988,11 @@
       <c r="C880" s="0" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D880" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="n">
         <v>2</v>
       </c>
@@ -21744,8 +22002,11 @@
       <c r="C881" s="0" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D881" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="n">
         <v>2</v>
       </c>
@@ -21755,8 +22016,11 @@
       <c r="C882" s="0" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D882" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="n">
         <v>2</v>
       </c>
@@ -21766,8 +22030,11 @@
       <c r="C883" s="0" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D883" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="n">
         <v>2</v>
       </c>
@@ -21777,8 +22044,11 @@
       <c r="C884" s="0" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D884" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="n">
         <v>2</v>
       </c>
@@ -21788,8 +22058,11 @@
       <c r="C885" s="0" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D885" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="n">
         <v>2</v>
       </c>
@@ -21799,8 +22072,11 @@
       <c r="C886" s="0" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D886" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="n">
         <v>2</v>
       </c>
@@ -21810,8 +22086,11 @@
       <c r="C887" s="0" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D887" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="n">
         <v>2</v>
       </c>
@@ -21821,8 +22100,11 @@
       <c r="C888" s="0" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D888" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="n">
         <v>2</v>
       </c>
@@ -21832,8 +22114,11 @@
       <c r="C889" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D889" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="n">
         <v>2</v>
       </c>
@@ -21843,8 +22128,11 @@
       <c r="C890" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D890" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="n">
         <v>2</v>
       </c>
@@ -21854,8 +22142,11 @@
       <c r="C891" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D891" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="n">
         <v>2</v>
       </c>
@@ -21865,8 +22156,11 @@
       <c r="C892" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D892" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="n">
         <v>2</v>
       </c>
@@ -21876,8 +22170,11 @@
       <c r="C893" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D893" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="n">
         <v>2</v>
       </c>
@@ -21887,8 +22184,11 @@
       <c r="C894" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D894" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="n">
         <v>2</v>
       </c>
@@ -21898,8 +22198,11 @@
       <c r="C895" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D895" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="n">
         <v>2</v>
       </c>
@@ -21909,8 +22212,11 @@
       <c r="C896" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D896" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="n">
         <v>2</v>
       </c>
@@ -21920,8 +22226,11 @@
       <c r="C897" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D897" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="n">
         <v>2</v>
       </c>
@@ -21931,8 +22240,11 @@
       <c r="C898" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D898" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="n">
         <v>2</v>
       </c>
@@ -21942,8 +22254,11 @@
       <c r="C899" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D899" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="n">
         <v>2</v>
       </c>
@@ -21953,8 +22268,11 @@
       <c r="C900" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D900" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="n">
         <v>2</v>
       </c>
@@ -21964,8 +22282,11 @@
       <c r="C901" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D901" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="n">
         <v>2</v>
       </c>
@@ -21975,8 +22296,11 @@
       <c r="C902" s="1" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D902" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="n">
         <v>2</v>
       </c>
@@ -21986,8 +22310,11 @@
       <c r="C903" s="0" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D903" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="n">
         <v>2</v>
       </c>
@@ -21997,8 +22324,11 @@
       <c r="C904" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D904" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="n">
         <v>2</v>
       </c>
@@ -22008,8 +22338,11 @@
       <c r="C905" s="0" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D905" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="n">
         <v>2</v>
       </c>
@@ -22019,8 +22352,11 @@
       <c r="C906" s="0" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D906" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="n">
         <v>2</v>
       </c>
@@ -22030,8 +22366,11 @@
       <c r="C907" s="0" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D907" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="n">
         <v>2</v>
       </c>
@@ -22041,8 +22380,11 @@
       <c r="C908" s="0" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D908" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="n">
         <v>2</v>
       </c>
@@ -22052,8 +22394,11 @@
       <c r="C909" s="0" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D909" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="n">
         <v>2</v>
       </c>
@@ -22063,8 +22408,11 @@
       <c r="C910" s="0" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D910" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="n">
         <v>2</v>
       </c>
@@ -22074,8 +22422,11 @@
       <c r="C911" s="3" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D911" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="n">
         <v>2</v>
       </c>
@@ -22085,8 +22436,11 @@
       <c r="C912" s="0" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D912" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="n">
         <v>2</v>
       </c>
@@ -22096,8 +22450,11 @@
       <c r="C913" s="0" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D913" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="n">
         <v>2</v>
       </c>
@@ -22107,8 +22464,11 @@
       <c r="C914" s="1" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D914" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="n">
         <v>2</v>
       </c>
@@ -22118,8 +22478,11 @@
       <c r="C915" s="0" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D915" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="n">
         <v>2</v>
       </c>
@@ -22129,8 +22492,11 @@
       <c r="C916" s="0" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D916" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="n">
         <v>2</v>
       </c>
@@ -22140,8 +22506,11 @@
       <c r="C917" s="0" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D917" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="n">
         <v>2</v>
       </c>
@@ -22151,8 +22520,11 @@
       <c r="C918" s="0" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D918" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="n">
         <v>2</v>
       </c>
@@ -22162,8 +22534,11 @@
       <c r="C919" s="0" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D919" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="n">
         <v>2</v>
       </c>
@@ -22173,8 +22548,11 @@
       <c r="C920" s="0" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D920" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="n">
         <v>2</v>
       </c>
@@ -22184,8 +22562,11 @@
       <c r="C921" s="0" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D921" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="n">
         <v>2</v>
       </c>
@@ -22195,8 +22576,11 @@
       <c r="C922" s="0" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D922" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="n">
         <v>2</v>
       </c>
@@ -22206,8 +22590,11 @@
       <c r="C923" s="0" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D923" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="n">
         <v>2</v>
       </c>
@@ -22217,8 +22604,11 @@
       <c r="C924" s="0" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D924" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="n">
         <v>2</v>
       </c>
@@ -22228,8 +22618,11 @@
       <c r="C925" s="0" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D925" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="n">
         <v>2</v>
       </c>
@@ -22239,8 +22632,11 @@
       <c r="C926" s="0" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D926" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="n">
         <v>2</v>
       </c>
@@ -22250,8 +22646,11 @@
       <c r="C927" s="0" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D927" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="n">
         <v>2</v>
       </c>
@@ -22261,8 +22660,11 @@
       <c r="C928" s="0" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D928" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="n">
         <v>2</v>
       </c>
@@ -22272,8 +22674,11 @@
       <c r="C929" s="0" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D929" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="n">
         <v>2</v>
       </c>
@@ -22283,8 +22688,11 @@
       <c r="C930" s="0" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D930" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="n">
         <v>2</v>
       </c>
@@ -22294,8 +22702,11 @@
       <c r="C931" s="0" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D931" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="n">
         <v>2</v>
       </c>
@@ -22305,8 +22716,11 @@
       <c r="C932" s="0" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D932" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="n">
         <v>2</v>
       </c>
@@ -22316,8 +22730,11 @@
       <c r="C933" s="0" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D933" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="n">
         <v>2</v>
       </c>
@@ -22327,8 +22744,11 @@
       <c r="C934" s="0" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D934" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="n">
         <v>2</v>
       </c>
@@ -22338,8 +22758,11 @@
       <c r="C935" s="0" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D935" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="n">
         <v>2</v>
       </c>
@@ -22349,8 +22772,11 @@
       <c r="C936" s="0" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D936" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="n">
         <v>2</v>
       </c>
@@ -22360,8 +22786,11 @@
       <c r="C937" s="0" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D937" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="n">
         <v>2</v>
       </c>
@@ -22371,8 +22800,11 @@
       <c r="C938" s="0" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D938" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="n">
         <v>2</v>
       </c>
@@ -22382,8 +22814,11 @@
       <c r="C939" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D939" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="n">
         <v>2</v>
       </c>
@@ -22393,8 +22828,11 @@
       <c r="C940" s="0" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D940" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="n">
         <v>2</v>
       </c>
@@ -22404,8 +22842,11 @@
       <c r="C941" s="0" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D941" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="n">
         <v>2</v>
       </c>
@@ -22415,8 +22856,11 @@
       <c r="C942" s="0" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D942" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="n">
         <v>2</v>
       </c>
@@ -22426,8 +22870,11 @@
       <c r="C943" s="0" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D943" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="n">
         <v>2</v>
       </c>
@@ -22437,8 +22884,11 @@
       <c r="C944" s="0" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D944" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="n">
         <v>2</v>
       </c>
@@ -22448,8 +22898,11 @@
       <c r="C945" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D945" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="n">
         <v>2</v>
       </c>
@@ -22459,8 +22912,11 @@
       <c r="C946" s="0" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D946" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="n">
         <v>2</v>
       </c>
@@ -22470,8 +22926,11 @@
       <c r="C947" s="0" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D947" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="n">
         <v>2</v>
       </c>
@@ -22481,8 +22940,11 @@
       <c r="C948" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D948" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="n">
         <v>2</v>
       </c>
@@ -22492,8 +22954,11 @@
       <c r="C949" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D949" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="n">
         <v>2</v>
       </c>
@@ -22503,8 +22968,11 @@
       <c r="C950" s="0" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D950" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="n">
         <v>2</v>
       </c>
@@ -22514,8 +22982,11 @@
       <c r="C951" s="0" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D951" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="n">
         <v>2</v>
       </c>
@@ -22525,8 +22996,11 @@
       <c r="C952" s="0" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D952" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="n">
         <v>2</v>
       </c>
@@ -22536,8 +23010,11 @@
       <c r="C953" s="0" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D953" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="n">
         <v>2</v>
       </c>
@@ -22547,8 +23024,11 @@
       <c r="C954" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D954" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="n">
         <v>2</v>
       </c>
@@ -22558,8 +23038,11 @@
       <c r="C955" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D955" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="n">
         <v>2</v>
       </c>
@@ -22569,8 +23052,11 @@
       <c r="C956" s="0" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D956" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="n">
         <v>2</v>
       </c>
@@ -22580,8 +23066,11 @@
       <c r="C957" s="0" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D957" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="n">
         <v>2</v>
       </c>
@@ -22591,8 +23080,11 @@
       <c r="C958" s="1" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D958" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="n">
         <v>2</v>
       </c>
@@ -22602,8 +23094,11 @@
       <c r="C959" s="1" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D959" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="n">
         <v>2</v>
       </c>
@@ -22613,8 +23108,11 @@
       <c r="C960" s="0" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D960" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="n">
         <v>2</v>
       </c>
@@ -22624,8 +23122,11 @@
       <c r="C961" s="0" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D961" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="n">
         <v>2</v>
       </c>
@@ -22635,8 +23136,11 @@
       <c r="C962" s="0" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D962" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="n">
         <v>2</v>
       </c>
@@ -22646,8 +23150,11 @@
       <c r="C963" s="0" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D963" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="n">
         <v>2</v>
       </c>
@@ -22657,8 +23164,11 @@
       <c r="C964" s="0" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D964" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="n">
         <v>2</v>
       </c>
@@ -22668,8 +23178,11 @@
       <c r="C965" s="0" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D965" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="n">
         <v>2</v>
       </c>
@@ -22679,8 +23192,11 @@
       <c r="C966" s="0" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D966" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="n">
         <v>2</v>
       </c>
@@ -22690,8 +23206,11 @@
       <c r="C967" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D967" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="n">
         <v>2</v>
       </c>
@@ -22701,8 +23220,11 @@
       <c r="C968" s="0" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D968" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
         <v>2</v>
       </c>
@@ -22712,8 +23234,11 @@
       <c r="C969" s="0" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D969" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
         <v>2</v>
       </c>
@@ -22723,8 +23248,11 @@
       <c r="C970" s="0" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D970" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
         <v>2</v>
       </c>
@@ -22734,8 +23262,11 @@
       <c r="C971" s="0" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D971" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
         <v>2</v>
       </c>
@@ -22745,8 +23276,11 @@
       <c r="C972" s="0" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D972" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
         <v>2</v>
       </c>
@@ -22756,8 +23290,11 @@
       <c r="C973" s="0" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D973" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
         <v>2</v>
       </c>
@@ -22767,8 +23304,11 @@
       <c r="C974" s="0" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D974" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
         <v>2</v>
       </c>
@@ -22778,8 +23318,11 @@
       <c r="C975" s="0" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D975" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
         <v>2</v>
       </c>
@@ -22789,8 +23332,11 @@
       <c r="C976" s="0" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D976" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
         <v>2</v>
       </c>
@@ -22800,8 +23346,11 @@
       <c r="C977" s="0" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D977" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
         <v>2</v>
       </c>
@@ -22811,8 +23360,11 @@
       <c r="C978" s="0" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D978" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
         <v>2</v>
       </c>
@@ -22822,8 +23374,11 @@
       <c r="C979" s="0" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D979" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
         <v>2</v>
       </c>
@@ -22833,8 +23388,11 @@
       <c r="C980" s="0" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D980" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
         <v>2</v>
       </c>
@@ -22844,8 +23402,11 @@
       <c r="C981" s="0" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D981" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
         <v>2</v>
       </c>
@@ -22855,8 +23416,11 @@
       <c r="C982" s="0" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D982" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
         <v>2</v>
       </c>
@@ -22866,8 +23430,11 @@
       <c r="C983" s="0" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D983" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
         <v>2</v>
       </c>
@@ -22877,8 +23444,11 @@
       <c r="C984" s="0" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D984" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
         <v>2</v>
       </c>
@@ -22888,8 +23458,11 @@
       <c r="C985" s="0" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D985" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
         <v>2</v>
       </c>
@@ -22899,8 +23472,11 @@
       <c r="C986" s="0" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D986" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
         <v>2</v>
       </c>
@@ -22910,8 +23486,11 @@
       <c r="C987" s="0" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D987" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
         <v>2</v>
       </c>
@@ -22921,8 +23500,11 @@
       <c r="C988" s="0" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D988" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
         <v>2</v>
       </c>
@@ -22932,8 +23514,11 @@
       <c r="C989" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D989" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
         <v>2</v>
       </c>
@@ -22943,8 +23528,11 @@
       <c r="C990" s="0" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D990" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
         <v>2</v>
       </c>
@@ -22954,8 +23542,11 @@
       <c r="C991" s="0" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D991" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="n">
         <v>2</v>
       </c>
@@ -22965,8 +23556,11 @@
       <c r="C992" s="0" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D992" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="n">
         <v>2</v>
       </c>
@@ -22976,8 +23570,11 @@
       <c r="C993" s="0" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D993" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="n">
         <v>2</v>
       </c>
@@ -22987,8 +23584,11 @@
       <c r="C994" s="0" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D994" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="n">
         <v>2</v>
       </c>
@@ -22998,8 +23598,11 @@
       <c r="C995" s="0" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D995" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="n">
         <v>2</v>
       </c>
@@ -23009,8 +23612,11 @@
       <c r="C996" s="0" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D996" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="n">
         <v>2</v>
       </c>
@@ -23020,8 +23626,11 @@
       <c r="C997" s="0" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D997" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="n">
         <v>2</v>
       </c>
@@ -23031,8 +23640,11 @@
       <c r="C998" s="0" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D998" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="n">
         <v>2</v>
       </c>
@@ -23042,8 +23654,11 @@
       <c r="C999" s="0" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D999" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="n">
         <v>2</v>
       </c>
@@ -23053,8 +23668,11 @@
       <c r="C1000" s="0" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1000" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="n">
         <v>2</v>
       </c>
@@ -23064,8 +23682,11 @@
       <c r="C1001" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1001" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="n">
         <v>2</v>
       </c>
@@ -23075,8 +23696,11 @@
       <c r="C1002" s="0" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1002" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="n">
         <v>2</v>
       </c>
@@ -23086,8 +23710,11 @@
       <c r="C1003" s="0" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1004" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1003" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="n">
         <v>2</v>
       </c>
@@ -23097,8 +23724,11 @@
       <c r="C1004" s="0" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1005" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1004" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="n">
         <v>2</v>
       </c>
@@ -23108,8 +23738,11 @@
       <c r="C1005" s="0" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1006" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1005" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="n">
         <v>2</v>
       </c>
@@ -23119,8 +23752,11 @@
       <c r="C1006" s="0" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1007" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1006" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="n">
         <v>2</v>
       </c>
@@ -23130,8 +23766,11 @@
       <c r="C1007" s="0" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1008" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1007" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="n">
         <v>2</v>
       </c>
@@ -23141,8 +23780,11 @@
       <c r="C1008" s="0" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1008" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="n">
         <v>2</v>
       </c>
@@ -23152,8 +23794,11 @@
       <c r="C1009" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1010" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1009" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="n">
         <v>2</v>
       </c>
@@ -23163,8 +23808,11 @@
       <c r="C1010" s="0" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1011" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1010" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="n">
         <v>2</v>
       </c>
@@ -23173,6 +23821,9 @@
       </c>
       <c r="C1011" s="0" t="s">
         <v>1239</v>
+      </c>
+      <c r="D1011" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23219,7 +23870,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="1016" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="n">
         <v>2</v>
       </c>
@@ -23228,6 +23879,9 @@
       </c>
       <c r="C1016" s="0" t="s">
         <v>1244</v>
+      </c>
+      <c r="D1016" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23241,7 +23895,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="1018" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="n">
         <v>2</v>
       </c>
@@ -23251,8 +23905,11 @@
       <c r="C1018" s="0" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1019" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1018" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="n">
         <v>2</v>
       </c>
@@ -23261,6 +23918,9 @@
       </c>
       <c r="C1019" s="0" t="s">
         <v>1248</v>
+      </c>
+      <c r="D1019" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23274,7 +23934,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="1021" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="n">
         <v>2</v>
       </c>
@@ -23284,8 +23944,11 @@
       <c r="C1021" s="0" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1021" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="n">
         <v>2</v>
       </c>
@@ -23295,8 +23958,11 @@
       <c r="C1022" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1022" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="n">
         <v>2</v>
       </c>
@@ -23306,8 +23972,11 @@
       <c r="C1023" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1023" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="n">
         <v>2</v>
       </c>
@@ -23317,8 +23986,11 @@
       <c r="C1024" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1024" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="n">
         <v>2</v>
       </c>
@@ -23328,8 +24000,11 @@
       <c r="C1025" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1025" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="n">
         <v>2</v>
       </c>
@@ -23339,8 +24014,11 @@
       <c r="C1026" s="1" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1026" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="n">
         <v>2</v>
       </c>
@@ -23349,6 +24027,9 @@
       </c>
       <c r="C1027" s="1" t="s">
         <v>1262</v>
+      </c>
+      <c r="D1027" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23362,7 +24043,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1029" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="n">
         <v>2</v>
       </c>
@@ -23372,8 +24053,11 @@
       <c r="C1029" s="0" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="1030" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1029" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="n">
         <v>2</v>
       </c>
@@ -23383,8 +24067,11 @@
       <c r="C1030" s="0" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1031" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1030" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="n">
         <v>2</v>
       </c>
@@ -23394,8 +24081,11 @@
       <c r="C1031" s="0" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="1032" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1031" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="n">
         <v>2</v>
       </c>
@@ -23405,8 +24095,11 @@
       <c r="C1032" s="0" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1032" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="n">
         <v>2</v>
       </c>
@@ -23416,8 +24109,11 @@
       <c r="C1033" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1033" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="n">
         <v>2</v>
       </c>
@@ -23427,8 +24123,11 @@
       <c r="C1034" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="1035" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1034" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="n">
         <v>2</v>
       </c>
@@ -23438,8 +24137,11 @@
       <c r="C1035" s="0" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1035" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="n">
         <v>2</v>
       </c>
@@ -23449,8 +24151,11 @@
       <c r="C1036" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1036" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="n">
         <v>2</v>
       </c>
@@ -23460,8 +24165,11 @@
       <c r="C1037" s="1" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1038" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1037" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="n">
         <v>2</v>
       </c>
@@ -23471,8 +24179,11 @@
       <c r="C1038" s="0" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1038" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="n">
         <v>2</v>
       </c>
@@ -23482,8 +24193,11 @@
       <c r="C1039" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1039" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="n">
         <v>2</v>
       </c>
@@ -23493,8 +24207,11 @@
       <c r="C1040" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1040" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="n">
         <v>2</v>
       </c>
@@ -23504,8 +24221,11 @@
       <c r="C1041" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1041" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="n">
         <v>2</v>
       </c>
@@ -23515,8 +24235,11 @@
       <c r="C1042" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1042" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="n">
         <v>2</v>
       </c>
@@ -23526,8 +24249,11 @@
       <c r="C1043" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1043" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="n">
         <v>2</v>
       </c>
@@ -23537,8 +24263,11 @@
       <c r="C1044" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1044" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="n">
         <v>2</v>
       </c>
@@ -23548,8 +24277,11 @@
       <c r="C1045" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1045" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="n">
         <v>2</v>
       </c>
@@ -23558,6 +24290,9 @@
       </c>
       <c r="C1046" s="1" t="s">
         <v>1293</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23571,7 +24306,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="1048" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="n">
         <v>2</v>
       </c>
@@ -23581,8 +24316,11 @@
       <c r="C1048" s="0" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1049" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1048" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="n">
         <v>2</v>
       </c>
@@ -23592,8 +24330,11 @@
       <c r="C1049" s="0" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1050" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1049" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="n">
         <v>2</v>
       </c>
@@ -23603,8 +24344,11 @@
       <c r="C1050" s="0" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="1051" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1050" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="n">
         <v>2</v>
       </c>
@@ -23614,8 +24358,11 @@
       <c r="C1051" s="0" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1052" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1051" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="n">
         <v>2</v>
       </c>
@@ -23625,8 +24372,11 @@
       <c r="C1052" s="0" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="1053" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1052" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="n">
         <v>2</v>
       </c>
@@ -23636,8 +24386,11 @@
       <c r="C1053" s="0" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="1054" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1053" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="n">
         <v>2</v>
       </c>
@@ -23647,8 +24400,11 @@
       <c r="C1054" s="0" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1054" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="n">
         <v>2</v>
       </c>
@@ -23658,8 +24414,11 @@
       <c r="C1055" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1055" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="n">
         <v>2</v>
       </c>
@@ -23669,8 +24428,11 @@
       <c r="C1056" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="1057" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1056" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="n">
         <v>2</v>
       </c>
@@ -23680,8 +24442,11 @@
       <c r="C1057" s="0" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1057" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="n">
         <v>2</v>
       </c>
@@ -23691,8 +24456,11 @@
       <c r="C1058" s="1" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="1059" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1058" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="n">
         <v>2</v>
       </c>
@@ -23702,8 +24470,11 @@
       <c r="C1059" s="0" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="1060" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1059" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="n">
         <v>2</v>
       </c>
@@ -23713,8 +24484,11 @@
       <c r="C1060" s="0" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="1061" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1060" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="n">
         <v>2</v>
       </c>
@@ -23724,8 +24498,11 @@
       <c r="C1061" s="0" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1062" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1061" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="n">
         <v>2</v>
       </c>
@@ -23735,8 +24512,11 @@
       <c r="C1062" s="0" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="1063" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1062" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="n">
         <v>2</v>
       </c>
@@ -23746,8 +24526,11 @@
       <c r="C1063" s="0" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="1064" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1063" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="n">
         <v>2</v>
       </c>
@@ -23757,8 +24540,11 @@
       <c r="C1064" s="0" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1065" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1064" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="n">
         <v>2</v>
       </c>
@@ -23768,8 +24554,11 @@
       <c r="C1065" s="0" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="1066" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1065" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="n">
         <v>2</v>
       </c>
@@ -23779,8 +24568,11 @@
       <c r="C1066" s="0" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1066" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="n">
         <v>2</v>
       </c>
@@ -23790,8 +24582,11 @@
       <c r="C1067" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1067" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="n">
         <v>2</v>
       </c>
@@ -23801,8 +24596,11 @@
       <c r="C1068" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1068" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="n">
         <v>2</v>
       </c>
@@ -23812,8 +24610,11 @@
       <c r="C1069" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="1070" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1069" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="n">
         <v>2</v>
       </c>
@@ -23823,8 +24624,11 @@
       <c r="C1070" s="0" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="1071" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1070" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="n">
         <v>2</v>
       </c>
@@ -23834,8 +24638,11 @@
       <c r="C1071" s="0" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1072" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1071" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="n">
         <v>2</v>
       </c>
@@ -23845,8 +24652,11 @@
       <c r="C1072" s="0" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1073" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1072" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="n">
         <v>2</v>
       </c>
@@ -23856,8 +24666,11 @@
       <c r="C1073" s="0" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="1074" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1073" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="n">
         <v>2</v>
       </c>
@@ -23867,8 +24680,11 @@
       <c r="C1074" s="0" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="1075" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1074" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="n">
         <v>2</v>
       </c>
@@ -23877,6 +24693,9 @@
       </c>
       <c r="C1075" s="0" t="s">
         <v>1328</v>
+      </c>
+      <c r="D1075" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23890,7 +24709,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="n">
         <v>2</v>
       </c>
@@ -23900,8 +24719,11 @@
       <c r="C1077" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1077" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="n">
         <v>2</v>
       </c>
@@ -23911,8 +24733,11 @@
       <c r="C1078" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="1079" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1078" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="n">
         <v>2</v>
       </c>
@@ -23922,8 +24747,11 @@
       <c r="C1079" s="0" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="1080" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1079" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="n">
         <v>2</v>
       </c>
@@ -23932,6 +24760,9 @@
       </c>
       <c r="C1080" s="0" t="s">
         <v>1335</v>
+      </c>
+      <c r="D1080" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23945,7 +24776,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="n">
         <v>2</v>
       </c>
@@ -23955,8 +24786,11 @@
       <c r="C1082" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="1083" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1082" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="n">
         <v>2</v>
       </c>
@@ -23966,8 +24800,11 @@
       <c r="C1083" s="0" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="1084" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1083" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="n">
         <v>2</v>
       </c>
@@ -23976,6 +24813,9 @@
       </c>
       <c r="C1084" s="0" t="s">
         <v>1341</v>
+      </c>
+      <c r="D1084" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24000,7 +24840,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="n">
         <v>2</v>
       </c>
@@ -24010,8 +24850,11 @@
       <c r="C1087" s="1" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="1088" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1087" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="n">
         <v>2</v>
       </c>
@@ -24021,8 +24864,11 @@
       <c r="C1088" s="0" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="1089" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1088" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="n">
         <v>2</v>
       </c>
@@ -24032,8 +24878,11 @@
       <c r="C1089" s="0" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="1090" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1089" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="n">
         <v>2</v>
       </c>
@@ -24043,8 +24892,11 @@
       <c r="C1090" s="0" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1091" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1090" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="n">
         <v>2</v>
       </c>
@@ -24054,8 +24906,11 @@
       <c r="C1091" s="0" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1092" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1091" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="n">
         <v>2</v>
       </c>
@@ -24065,8 +24920,11 @@
       <c r="C1092" s="0" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="1093" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1092" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="n">
         <v>2</v>
       </c>
@@ -24076,8 +24934,11 @@
       <c r="C1093" s="0" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1093" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="n">
         <v>2</v>
       </c>
@@ -24087,8 +24948,11 @@
       <c r="C1094" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="1095" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1094" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="n">
         <v>2</v>
       </c>
@@ -24098,8 +24962,11 @@
       <c r="C1095" s="0" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="1096" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1095" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="n">
         <v>2</v>
       </c>
@@ -24109,8 +24976,11 @@
       <c r="C1096" s="0" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="1097" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1096" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="n">
         <v>2</v>
       </c>
@@ -24120,8 +24990,11 @@
       <c r="C1097" s="0" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="1098" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1097" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="n">
         <v>2</v>
       </c>
@@ -24131,8 +25004,11 @@
       <c r="C1098" s="0" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="1099" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1098" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="n">
         <v>2</v>
       </c>
@@ -24142,8 +25018,11 @@
       <c r="C1099" s="0" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="1100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1099" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="n">
         <v>2</v>
       </c>
@@ -24153,8 +25032,11 @@
       <c r="C1100" s="0" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="1101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1100" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="n">
         <v>2</v>
       </c>
@@ -24164,8 +25046,11 @@
       <c r="C1101" s="0" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1101" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="n">
         <v>2</v>
       </c>
@@ -24175,8 +25060,11 @@
       <c r="C1102" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="1103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1102" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="n">
         <v>2</v>
       </c>
@@ -24186,8 +25074,11 @@
       <c r="C1103" s="0" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="1104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1103" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="0" t="n">
         <v>2</v>
       </c>
@@ -24197,8 +25088,11 @@
       <c r="C1104" s="0" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="1105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1104" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="n">
         <v>2</v>
       </c>
@@ -24208,8 +25102,11 @@
       <c r="C1105" s="0" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="1106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1105" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="n">
         <v>2</v>
       </c>
@@ -24218,6 +25115,9 @@
       </c>
       <c r="C1106" s="0" t="s">
         <v>1367</v>
+      </c>
+      <c r="D1106" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24231,7 +25131,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="1108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="n">
         <v>2</v>
       </c>
@@ -24241,8 +25141,11 @@
       <c r="C1108" s="0" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1108" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="n">
         <v>2</v>
       </c>
@@ -24252,8 +25155,11 @@
       <c r="C1109" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="1110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1109" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="0" t="n">
         <v>2</v>
       </c>
@@ -24262,6 +25168,9 @@
       </c>
       <c r="C1110" s="0" t="s">
         <v>1372</v>
+      </c>
+      <c r="D1110" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24297,7 +25206,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="n">
         <v>2</v>
       </c>
@@ -24307,8 +25216,11 @@
       <c r="C1114" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="1115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1114" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="n">
         <v>2</v>
       </c>
@@ -24318,8 +25230,11 @@
       <c r="C1115" s="0" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="1116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1115" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="n">
         <v>2</v>
       </c>
@@ -24328,6 +25243,9 @@
       </c>
       <c r="C1116" s="0" t="s">
         <v>455</v>
+      </c>
+      <c r="D1116" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24341,7 +25259,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="0" t="n">
         <v>2</v>
       </c>
@@ -24351,8 +25269,11 @@
       <c r="C1118" s="0" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="1119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1118" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="0" t="n">
         <v>2</v>
       </c>
@@ -24362,8 +25283,11 @@
       <c r="C1119" s="0" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="1120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1119" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="n">
         <v>2</v>
       </c>
@@ -24373,8 +25297,11 @@
       <c r="C1120" s="0" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="1121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1120" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="n">
         <v>2</v>
       </c>
@@ -24384,8 +25311,11 @@
       <c r="C1121" s="0" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="1122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1121" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="n">
         <v>2</v>
       </c>
@@ -24395,8 +25325,11 @@
       <c r="C1122" s="0" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="1123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1122" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="n">
         <v>2</v>
       </c>
@@ -24406,8 +25339,11 @@
       <c r="C1123" s="0" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="1124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1123" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="n">
         <v>2</v>
       </c>
@@ -24417,8 +25353,11 @@
       <c r="C1124" s="0" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="1125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1124" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="n">
         <v>2</v>
       </c>
@@ -24428,8 +25367,11 @@
       <c r="C1125" s="0" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1125" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="n">
         <v>2</v>
       </c>
@@ -24439,8 +25381,11 @@
       <c r="C1126" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1126" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="n">
         <v>2</v>
       </c>
@@ -24450,8 +25395,11 @@
       <c r="C1127" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1127" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="n">
         <v>2</v>
       </c>
@@ -24460,6 +25408,9 @@
       </c>
       <c r="C1128" s="1" t="s">
         <v>1392</v>
+      </c>
+      <c r="D1128" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24473,7 +25424,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="n">
         <v>2</v>
       </c>
@@ -24483,8 +25434,11 @@
       <c r="C1130" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1130" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="n">
         <v>2</v>
       </c>
@@ -24494,8 +25448,11 @@
       <c r="C1131" s="1" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="1132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1131" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="n">
         <v>2</v>
       </c>
@@ -24505,8 +25462,11 @@
       <c r="C1132" s="0" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1132" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="n">
         <v>2</v>
       </c>
@@ -24516,8 +25476,11 @@
       <c r="C1133" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="1134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1133" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="n">
         <v>2</v>
       </c>
@@ -24527,8 +25490,11 @@
       <c r="C1134" s="0" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="1135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1134" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="n">
         <v>2</v>
       </c>
@@ -24538,8 +25504,11 @@
       <c r="C1135" s="0" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1135" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="n">
         <v>2</v>
       </c>
@@ -24549,8 +25518,11 @@
       <c r="C1136" s="1" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1136" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="n">
         <v>2</v>
       </c>
@@ -24560,8 +25532,11 @@
       <c r="C1137" s="1" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="1138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1137" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="n">
         <v>2</v>
       </c>
@@ -24571,8 +25546,11 @@
       <c r="C1138" s="0" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1138" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="n">
         <v>2</v>
       </c>
@@ -24582,8 +25560,11 @@
       <c r="C1139" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1139" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="n">
         <v>2</v>
       </c>
@@ -24593,8 +25574,11 @@
       <c r="C1140" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="1141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1140" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="n">
         <v>2</v>
       </c>
@@ -24604,8 +25588,11 @@
       <c r="C1141" s="0" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="1142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1141" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="n">
         <v>2</v>
       </c>
@@ -24615,8 +25602,11 @@
       <c r="C1142" s="0" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="1143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1142" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="n">
         <v>2</v>
       </c>
@@ -24626,8 +25616,11 @@
       <c r="C1143" s="0" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1143" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="n">
         <v>2</v>
       </c>
@@ -24637,8 +25630,11 @@
       <c r="C1144" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="1145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1144" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="n">
         <v>2</v>
       </c>
@@ -24648,8 +25644,11 @@
       <c r="C1145" s="0" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="1146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1145" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="n">
         <v>2</v>
       </c>
@@ -24659,8 +25658,11 @@
       <c r="C1146" s="0" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="1147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1146" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="n">
         <v>2</v>
       </c>
@@ -24670,8 +25672,11 @@
       <c r="C1147" s="0" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1147" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="n">
         <v>2</v>
       </c>
@@ -24681,8 +25686,11 @@
       <c r="C1148" s="1" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1148" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="n">
         <v>2</v>
       </c>
@@ -24692,8 +25700,11 @@
       <c r="C1149" s="0" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="1150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1149" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="n">
         <v>2</v>
       </c>
@@ -24703,8 +25714,11 @@
       <c r="C1150" s="0" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1150" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="n">
         <v>2</v>
       </c>
@@ -24713,6 +25727,9 @@
       </c>
       <c r="C1151" s="1" t="s">
         <v>1425</v>
+      </c>
+      <c r="D1151" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24759,7 +25776,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="n">
         <v>1</v>
       </c>
@@ -24769,8 +25786,11 @@
       <c r="C1156" s="0" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="1157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1156" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="n">
         <v>1</v>
       </c>
@@ -24780,8 +25800,11 @@
       <c r="C1157" s="0" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="1158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1157" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="n">
         <v>1</v>
       </c>
@@ -24791,8 +25814,11 @@
       <c r="C1158" s="0" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1158" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="0" t="n">
         <v>1</v>
       </c>
@@ -24802,8 +25828,11 @@
       <c r="C1159" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="1160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1159" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="n">
         <v>1</v>
       </c>
@@ -24813,8 +25842,11 @@
       <c r="C1160" s="0" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="1161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1160" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="n">
         <v>1</v>
       </c>
@@ -24824,6 +25856,9 @@
       <c r="C1161" s="0" t="s">
         <v>1436</v>
       </c>
+      <c r="D1161" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="n">
@@ -24836,7 +25871,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="1163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="0" t="n">
         <v>1</v>
       </c>
@@ -24846,8 +25881,11 @@
       <c r="C1163" s="0" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="1164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1163" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="0" t="n">
         <v>1</v>
       </c>
@@ -24857,8 +25895,11 @@
       <c r="C1164" s="0" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="1165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1164" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="0" t="n">
         <v>1</v>
       </c>
@@ -24868,8 +25909,11 @@
       <c r="C1165" s="0" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="1166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1165" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="0" t="n">
         <v>1</v>
       </c>
@@ -24879,8 +25923,11 @@
       <c r="C1166" s="0" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="1167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1166" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="n">
         <v>1</v>
       </c>
@@ -24890,8 +25937,11 @@
       <c r="C1167" s="0" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="1168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1167" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="0" t="n">
         <v>1</v>
       </c>
@@ -24901,8 +25951,11 @@
       <c r="C1168" s="0" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="1169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1168" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="0" t="n">
         <v>1</v>
       </c>
@@ -24912,8 +25965,11 @@
       <c r="C1169" s="0" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="1170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1169" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="0" t="n">
         <v>1</v>
       </c>
@@ -24923,8 +25979,11 @@
       <c r="C1170" s="0" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="1171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1170" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="0" t="n">
         <v>1</v>
       </c>
@@ -24934,8 +25993,11 @@
       <c r="C1171" s="0" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="1172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1171" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="0" t="n">
         <v>1</v>
       </c>
@@ -24945,6 +26007,9 @@
       <c r="C1172" s="0" t="s">
         <v>1447</v>
       </c>
+      <c r="D1172" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="0" t="n">
@@ -24957,7 +26022,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="0" t="n">
         <v>1</v>
       </c>
@@ -24967,8 +26032,11 @@
       <c r="C1174" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1174" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="0" t="n">
         <v>1</v>
       </c>
@@ -24978,8 +26046,11 @@
       <c r="C1175" s="1" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1175" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="0" t="n">
         <v>1</v>
       </c>
@@ -24989,8 +26060,11 @@
       <c r="C1176" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="1177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1176" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="0" t="n">
         <v>1</v>
       </c>
@@ -25000,8 +26074,11 @@
       <c r="C1177" s="0" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="1178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1177" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="0" t="n">
         <v>1</v>
       </c>
@@ -25011,8 +26088,11 @@
       <c r="C1178" s="0" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="1179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1178" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="0" t="n">
         <v>1</v>
       </c>
@@ -25022,8 +26102,11 @@
       <c r="C1179" s="0" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="1180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1179" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="0" t="n">
         <v>1</v>
       </c>
@@ -25033,8 +26116,11 @@
       <c r="C1180" s="0" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="1181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1180" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="0" t="n">
         <v>1</v>
       </c>
@@ -25044,8 +26130,11 @@
       <c r="C1181" s="0" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="1182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1181" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="n">
         <v>1</v>
       </c>
@@ -25055,8 +26144,11 @@
       <c r="C1182" s="0" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="1183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1182" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="0" t="n">
         <v>1</v>
       </c>
@@ -25066,8 +26158,11 @@
       <c r="C1183" s="0" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="1184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1183" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="0" t="n">
         <v>1</v>
       </c>
@@ -25077,6 +26172,9 @@
       <c r="C1184" s="0" t="s">
         <v>1470</v>
       </c>
+      <c r="D1184" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="0" t="n">
@@ -25100,7 +26198,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="1187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="0" t="n">
         <v>1</v>
       </c>
@@ -25110,8 +26208,11 @@
       <c r="C1187" s="0" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1187" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="0" t="n">
         <v>1</v>
       </c>
@@ -25121,8 +26222,11 @@
       <c r="C1188" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1188" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="0" t="n">
         <v>1</v>
       </c>
@@ -25132,8 +26236,11 @@
       <c r="C1189" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1189" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="n">
         <v>1</v>
       </c>
@@ -25143,8 +26250,11 @@
       <c r="C1190" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1190" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="0" t="n">
         <v>1</v>
       </c>
@@ -25154,8 +26264,11 @@
       <c r="C1191" s="1" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1191" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="0" t="n">
         <v>1</v>
       </c>
@@ -25165,8 +26278,11 @@
       <c r="C1192" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1192" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="0" t="n">
         <v>1</v>
       </c>
@@ -25176,8 +26292,11 @@
       <c r="C1193" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1193" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="0" t="n">
         <v>1</v>
       </c>
@@ -25187,8 +26306,11 @@
       <c r="C1194" s="1" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1194" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="0" t="n">
         <v>1</v>
       </c>
@@ -25198,8 +26320,11 @@
       <c r="C1195" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1195" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="0" t="n">
         <v>1</v>
       </c>
@@ -25209,8 +26334,11 @@
       <c r="C1196" s="1" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1196" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="0" t="n">
         <v>1</v>
       </c>
@@ -25220,8 +26348,11 @@
       <c r="C1197" s="1" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1197" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="0" t="n">
         <v>1</v>
       </c>
@@ -25231,8 +26362,11 @@
       <c r="C1198" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1198" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="0" t="n">
         <v>1</v>
       </c>
@@ -25242,8 +26376,11 @@
       <c r="C1199" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1199" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="0" t="n">
         <v>1</v>
       </c>
@@ -25253,8 +26390,11 @@
       <c r="C1200" s="1" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1200" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="0" t="n">
         <v>1</v>
       </c>
@@ -25264,6 +26404,9 @@
       <c r="C1201" s="1" t="s">
         <v>1501</v>
       </c>
+      <c r="D1201" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="0" t="n">
@@ -25276,7 +26419,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="0" t="n">
         <v>1</v>
       </c>
@@ -25286,8 +26429,11 @@
       <c r="C1203" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1203" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="0" t="n">
         <v>1</v>
       </c>
@@ -25297,8 +26443,11 @@
       <c r="C1204" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1204" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="0" t="n">
         <v>1</v>
       </c>
@@ -25308,8 +26457,11 @@
       <c r="C1205" s="1" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="1206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1205" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="0" t="n">
         <v>1</v>
       </c>
@@ -25319,8 +26471,11 @@
       <c r="C1206" s="0" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="1207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1206" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="0" t="n">
         <v>1</v>
       </c>
@@ -25330,8 +26485,11 @@
       <c r="C1207" s="0" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="1208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1207" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="0" t="n">
         <v>1</v>
       </c>
@@ -25341,8 +26499,11 @@
       <c r="C1208" s="0" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="1209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1208" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="0" t="n">
         <v>1</v>
       </c>
@@ -25352,6 +26513,9 @@
       <c r="C1209" s="0" t="s">
         <v>1513</v>
       </c>
+      <c r="D1209" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="0" t="n">
@@ -25364,7 +26528,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="0" t="n">
         <v>1</v>
       </c>
@@ -25374,8 +26538,11 @@
       <c r="C1211" s="1" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1211" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="0" t="n">
         <v>1</v>
       </c>
@@ -25385,8 +26552,11 @@
       <c r="C1212" s="1" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="1213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1212" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="0" t="n">
         <v>1</v>
       </c>
@@ -25396,8 +26566,11 @@
       <c r="C1213" s="0" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="1214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1213" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="0" t="n">
         <v>1</v>
       </c>
@@ -25407,8 +26580,11 @@
       <c r="C1214" s="0" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1214" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="n">
         <v>1</v>
       </c>
@@ -25418,8 +26594,11 @@
       <c r="C1215" s="1" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1215" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="n">
         <v>1</v>
       </c>
@@ -25429,8 +26608,11 @@
       <c r="C1216" s="1" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="1217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1216" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="0" t="n">
         <v>1</v>
       </c>
@@ -25440,8 +26622,11 @@
       <c r="C1217" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1217" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="0" t="n">
         <v>1</v>
       </c>
@@ -25451,8 +26636,11 @@
       <c r="C1218" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="1219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1218" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="0" t="n">
         <v>1</v>
       </c>
@@ -25462,8 +26650,11 @@
       <c r="C1219" s="1" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="1220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1219" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="0" t="n">
         <v>1</v>
       </c>
@@ -25473,8 +26664,11 @@
       <c r="C1220" s="1" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="1221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1220" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="n">
         <v>1</v>
       </c>
@@ -25484,8 +26678,11 @@
       <c r="C1221" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="1222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1221" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="0" t="n">
         <v>1</v>
       </c>
@@ -25495,8 +26692,11 @@
       <c r="C1222" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="1223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1222" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="0" t="n">
         <v>1</v>
       </c>
@@ -25506,8 +26706,11 @@
       <c r="C1223" s="1" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="1224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1223" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="n">
         <v>1</v>
       </c>
@@ -25517,8 +26720,11 @@
       <c r="C1224" s="1" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="1225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1224" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="0" t="n">
         <v>1</v>
       </c>
@@ -25528,8 +26734,11 @@
       <c r="C1225" s="1" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="1226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1225" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="n">
         <v>1</v>
       </c>
@@ -25539,8 +26748,11 @@
       <c r="C1226" s="1" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="1227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1226" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="n">
         <v>1</v>
       </c>
@@ -25550,8 +26762,11 @@
       <c r="C1227" s="1" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="1228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1227" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="n">
         <v>1</v>
       </c>
@@ -25561,8 +26776,11 @@
       <c r="C1228" s="1" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="1229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1228" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="n">
         <v>1</v>
       </c>
@@ -25572,8 +26790,11 @@
       <c r="C1229" s="1" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="1230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1229" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="n">
         <v>1</v>
       </c>
@@ -25583,8 +26804,11 @@
       <c r="C1230" s="1" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="1231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1230" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="0" t="n">
         <v>1</v>
       </c>
@@ -25594,8 +26818,11 @@
       <c r="C1231" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="1232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1231" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="0" t="n">
         <v>1</v>
       </c>
@@ -25605,8 +26832,11 @@
       <c r="C1232" s="0" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="1233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1232" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="0" t="n">
         <v>1</v>
       </c>
@@ -25616,8 +26846,11 @@
       <c r="C1233" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="1234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1233" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="0" t="n">
         <v>1</v>
       </c>
@@ -25627,8 +26860,11 @@
       <c r="C1234" s="0" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="1235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1234" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="0" t="n">
         <v>1</v>
       </c>
@@ -25638,8 +26874,11 @@
       <c r="C1235" s="0" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="1236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1235" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="0" t="n">
         <v>1</v>
       </c>
@@ -25649,8 +26888,11 @@
       <c r="C1236" s="0" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="1237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1236" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="0" t="n">
         <v>1</v>
       </c>
@@ -25660,8 +26902,11 @@
       <c r="C1237" s="0" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="1238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1237" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="0" t="n">
         <v>1</v>
       </c>
@@ -25671,8 +26916,11 @@
       <c r="C1238" s="0" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="1239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1238" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="0" t="n">
         <v>1</v>
       </c>
@@ -25682,8 +26930,11 @@
       <c r="C1239" s="0" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="1240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1239" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="0" t="n">
         <v>1</v>
       </c>
@@ -25693,8 +26944,11 @@
       <c r="C1240" s="0" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="1241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1240" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="0" t="n">
         <v>1</v>
       </c>
@@ -25704,8 +26958,11 @@
       <c r="C1241" s="0" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="1242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1241" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="0" t="n">
         <v>1</v>
       </c>
@@ -25715,8 +26972,11 @@
       <c r="C1242" s="1" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="1243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1242" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="n">
         <v>1</v>
       </c>
@@ -25726,6 +26986,9 @@
       <c r="C1243" s="0" t="s">
         <v>1568</v>
       </c>
+      <c r="D1243" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="1244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="0" t="n">
@@ -25749,7 +27012,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="1246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="0" t="n">
         <v>1</v>
       </c>
@@ -25759,8 +27022,11 @@
       <c r="C1246" s="0" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="1247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1246" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="0" t="n">
         <v>1</v>
       </c>
@@ -25770,8 +27036,11 @@
       <c r="C1247" s="0" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="1248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1247" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="0" t="n">
         <v>1</v>
       </c>
@@ -25781,8 +27050,11 @@
       <c r="C1248" s="1" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="1249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1248" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="0" t="n">
         <v>1</v>
       </c>
@@ -25792,8 +27064,11 @@
       <c r="C1249" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="1250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1249" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="0" t="n">
         <v>1</v>
       </c>
@@ -25803,8 +27078,11 @@
       <c r="C1250" s="1" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="1251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1250" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="0" t="n">
         <v>1</v>
       </c>
@@ -25814,8 +27092,11 @@
       <c r="C1251" s="1" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="1252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1251" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="0" t="n">
         <v>1</v>
       </c>
@@ -25825,8 +27106,11 @@
       <c r="C1252" s="1" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="1253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1252" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="0" t="n">
         <v>1</v>
       </c>
@@ -25836,8 +27120,11 @@
       <c r="C1253" s="1" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="1254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1253" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="0" t="n">
         <v>1</v>
       </c>
@@ -25847,8 +27134,11 @@
       <c r="C1254" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="1255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1254" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="0" t="n">
         <v>1</v>
       </c>
@@ -25858,8 +27148,11 @@
       <c r="C1255" s="1" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="1256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1255" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="0" t="n">
         <v>1</v>
       </c>
@@ -25869,8 +27162,11 @@
       <c r="C1256" s="1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="1257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1256" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="0" t="n">
         <v>1</v>
       </c>
@@ -25880,8 +27176,11 @@
       <c r="C1257" s="1" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="1258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1257" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="0" t="n">
         <v>1</v>
       </c>
@@ -25891,8 +27190,11 @@
       <c r="C1258" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="1259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1258" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="0" t="n">
         <v>1</v>
       </c>
@@ -25902,8 +27204,11 @@
       <c r="C1259" s="1" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="1260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1259" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="0" t="n">
         <v>1</v>
       </c>
@@ -25913,8 +27218,11 @@
       <c r="C1260" s="1" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="1261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1260" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="0" t="n">
         <v>1</v>
       </c>
@@ -25924,8 +27232,11 @@
       <c r="C1261" s="7" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="1262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1261" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="0" t="n">
         <v>1</v>
       </c>
@@ -25935,8 +27246,11 @@
       <c r="C1262" s="1" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="1263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1262" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="0" t="n">
         <v>1</v>
       </c>
@@ -25946,8 +27260,11 @@
       <c r="C1263" s="1" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="1264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1263" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="0" t="n">
         <v>1</v>
       </c>
@@ -25957,8 +27274,11 @@
       <c r="C1264" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="1265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1264" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="0" t="n">
         <v>1</v>
       </c>
@@ -25968,8 +27288,11 @@
       <c r="C1265" s="1" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="1266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1265" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="0" t="n">
         <v>1</v>
       </c>
@@ -25979,8 +27302,11 @@
       <c r="C1266" s="0" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="1267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1266" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="0" t="n">
         <v>1</v>
       </c>
@@ -25990,8 +27316,11 @@
       <c r="C1267" s="0" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="1268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1267" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="0" t="n">
         <v>1</v>
       </c>
@@ -26001,8 +27330,11 @@
       <c r="C1268" s="0" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="1269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1268" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="0" t="n">
         <v>1</v>
       </c>
@@ -26012,8 +27344,11 @@
       <c r="C1269" s="0" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="1270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1269" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="0" t="n">
         <v>1</v>
       </c>
@@ -26023,8 +27358,11 @@
       <c r="C1270" s="0" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="1271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1270" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="0" t="n">
         <v>1</v>
       </c>
@@ -26034,8 +27372,11 @@
       <c r="C1271" s="0" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="1272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1271" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="0" t="n">
         <v>1</v>
       </c>
@@ -26045,8 +27386,11 @@
       <c r="C1272" s="0" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="1273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1272" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="0" t="n">
         <v>1</v>
       </c>
@@ -26055,6 +27399,9 @@
       </c>
       <c r="C1273" s="1" t="s">
         <v>1617</v>
+      </c>
+      <c r="D1273" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
